--- a/input/images/tables/uscdi-table.xlsx
+++ b/input/images/tables/uscdi-table.xlsx
@@ -694,7 +694,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Practitioner.name, RelatedPerson.name</t>
+          <t>Practitioner.name | RelatedPerson.name</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -766,7 +766,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>PractitionerRole.address, Practitioner.address, RelatedPerson.address</t>
+          <t>PractitionerRole.address | Practitioner.address | RelatedPerson.address</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -802,7 +802,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>PractitionerRole.telecom, Practitioner.telecom, RelatedPerson.telecom</t>
+          <t>PractitionerRole.telecom | Practitioner.telecom | RelatedPerson.telecom</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -864,7 +864,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>DocumentReference,DiagnosticReport</t>
+          <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1016,7 +1016,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>DocumentReference,DiagnosticReport</t>
+          <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1052,7 +1052,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>DocumentReference,DiagnosticReport</t>
+          <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>DocumentReference,DiagnosticReport</t>
+          <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1124,7 +1124,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>DocumentReference,DiagnosticReport</t>
+          <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1190,7 +1190,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Observation, DiagnosticReport</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1226,7 +1226,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Observation, DiagnosticReport</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1262,7 +1262,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Observation, DiagnosticReport</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1288,7 +1288,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Observation, DiagnosticReport</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1324,7 +1324,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Observation, DiagnosticReport</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -1360,7 +1360,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Observation, DiagnosticReport</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -1984,7 +1984,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Coverage.status + Coverage.period</t>
+          <t>Coverage.status+Coverage.period</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -2056,7 +2056,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Coverage,relationship</t>
+          <t>Coverage | relationship</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Observation,Condition,QuestionnaireResponse</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -2466,7 +2466,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Observation,Condition,QuestionnaireResponse</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2510,7 +2510,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Observation,Condition,QuestionnaireResponse</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2554,7 +2554,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Observation,Condition,QuestionnaireResponse</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2598,7 +2598,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Observation,Condition,QuestionnaireResponse</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2726,7 +2726,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Observation, DiagnosticReport,Specimen</t>
+          <t>Observation | DiagnosticReport | Specimen</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -2762,7 +2762,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Observation.code, DiagnosticReport.code</t>
+          <t>Observation.code | DiagnosticReport.code</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -2798,7 +2798,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Observation.value[x], DiagnosticReport.result</t>
+          <t>Observation.value[x] | DiagnosticReport.result</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -2834,7 +2834,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Observation.specimen, Specimen</t>
+          <t>Observation.specimen | Specimen</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -2870,7 +2870,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Observation.status, DiagnosticReport.status</t>
+          <t>Observation.status | DiagnosticReport.status</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -3174,7 +3174,7 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>MedicationRequest, MedicationDispense, Medication</t>
+          <t>MedicationRequest | MedicationDispense | Medication</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3218,7 +3218,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Medication.code, MedicationRequest.medication[x]</t>
+          <t>Medication.code | MedicationRequest.medication[x]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -3464,7 +3464,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Patient, Observation</t>
+          <t>Patient | Observation</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Condition.extension.where(url='http://hl7.org/fhir/StructureDefinition/condition-assertedDate') |  Condition.onset[x] | Condition.onsetDate</t>
+          <t>Condition.extension.where(url='http://hl7.org/fhir/StructureDefinition/condition-assertedDate') | Condition.onset[x] | Condition.onsetDate</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -4518,7 +4518,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Procedure, ServiceRequest</t>
+          <t>Procedure | ServiceRequest</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -4590,7 +4590,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Procedure.pertormed[x],DiagnosticReport.effective[x],Immunization.occurrence[x]</t>
+          <t>Procedure.pertormed[x] | DiagnosticReport.effective[x] | Immunization.occurrence[x]</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -4626,7 +4626,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>ServiceRequest.reasonCode, ServiceRequest.reasonReference, Procedure.reasonCode, Procedure.reasonReference</t>
+          <t>ServiceRequest.reasonCode | ServiceRequest.reasonReference | Procedure.reasonCode | Procedure.reasonReference</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -4662,7 +4662,7 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>ServiceRequest, Procedure</t>
+          <t>ServiceRequest | Procedure</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">

--- a/input/images/tables/uscdi-table.xlsx
+++ b/input/images/tables/uscdi-table.xlsx
@@ -1036,7 +1036,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Laboratory Report Narrative</t>
+          <t>Procedure Note</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1067,64 +1067,58 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile|US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core DocumentReference Profile</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pathology Report Narrative</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>DocumentReference | DiagnosticReport</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>DocumentReference | DiagnosticReport</t>
-        </is>
-      </c>
+          <t>Progress Note</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>DocumentReference | DiagnosticReport</t>
+          <t>DocumentReference</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Clinical Notes</t>
+          <t>Clinical Tests</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile|US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Procedure Note</t>
+          <t>Clinical Tests</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DocumentReference | DiagnosticReport</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DocumentReference | DiagnosticReport</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>DocumentReference | DiagnosticReport</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1134,34 +1128,40 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Clinical Notes</t>
+          <t>Clinical Tests</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile</t>
+          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Progress Note</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+          <t>Clinical Test</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Observation | DiagnosticReport</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Observation | DiagnosticReport</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>DocumentReference</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>Clinical Tests</t>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Clinical Tests</t>
+          <t>Clinical Test Result/Report</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1197,10 +1197,12 @@
       <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Clinical Tests</t>
+          <t>Diagnostic Imaging</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1208,21 +1210,9 @@
           <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Clinical Test</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
@@ -1236,7 +1226,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Clinical Tests</t>
+          <t>Diagnostic Imaging</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1246,7 +1236,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Clinical Test Result/Report</t>
+          <t>Diagnostic Imaging Test</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1269,9 +1259,7 @@
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
           <t>Diagnostic Imaging</t>
@@ -1282,9 +1270,21 @@
           <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Diagnostic Imaging Result/Report</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Observation | DiagnosticReport</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Observation | DiagnosticReport</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
@@ -1295,36 +1295,26 @@
       <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="n">
+        <v>6</v>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Diagnostic Imaging Test</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+          <t>US Core Encounter Profile</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -1334,42 +1324,40 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging Result/Report</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Encounter.identifier</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>6</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
           <t>Encounter</t>
@@ -1380,13 +1368,25 @@
           <t>US Core Encounter Profile</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Encounter</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Encounter</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Encounter.type</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -1401,28 +1401,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>US Core Condition Encounter Diagnosis Profile</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Diagnosis</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Encounter.identifier</t>
+          <t>Condition.code</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1458,7 +1458,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Encounter.type</t>
+          <t>Encounter.period</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -1473,28 +1473,28 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>US Core Condition Encounter Diagnosis Profile</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Diagnosis</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Condition.code</t>
+          <t>Encounter.location.location</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1530,88 +1530,84 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Encounter.period</t>
+          <t>Encounter.hospitalization.dischargeDisposition</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Facility Information</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Encounter</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Encounter</t>
-        </is>
-      </c>
+          <t>US Core Location Profile</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Encounter.location.location</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>See Facility Information Guidance</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>StructureDefinition-us-core-location.html</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Facility Information</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>US Core Location Profile</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Encounter.hospitalization.dischargeDisposition</t>
+          <t>Location.identifier</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>7</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
           <t>Facility Information</t>
@@ -1622,25 +1618,29 @@
           <t>US Core Location Profile</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>See Facility Information Guidance</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>StructureDefinition-us-core-location.html</t>
-        </is>
-      </c>
+          <t>Location.type</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1672,43 +1672,33 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Location.identifier</t>
+          <t>Location.name</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="n">
+        <v>8</v>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Facility Information</t>
+          <t>Goals and Preferences</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
+          <t>US Core Goal Profile</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Location.type</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -1718,42 +1708,40 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Facility Information</t>
+          <t>Goals and Preferences</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
+          <t>US Core Goal Profile</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Patient Goals</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Location.name</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>8</v>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
           <t>Goals and Preferences</t>
@@ -1764,17 +1752,37 @@
           <t>US Core Goal Profile</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SDOH Goals</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Goal</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Goal</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>Goal</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -1785,28 +1793,28 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>US Core Goal Profile</t>
+          <t>US Core Treatment Intervention Preference Profile</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Patient Goals</t>
+          <t>Treatment Intervention Preference</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -1821,72 +1829,54 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US Core Goal Profile</t>
+          <t>US Core Care Experience Preference Profile</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SDOH Goals</t>
+          <t>Care Experience Preference</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Goal</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Goals and Preferences</t>
+          <t>Health Insurance Information</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>US Core Treatment Intervention Preference Profile</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Treatment Intervention Preference</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Coverage | Organization</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -1896,42 +1886,40 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Goals and Preferences</t>
+          <t>Health Insurance Information</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US Core Care Experience Preference Profile</t>
+          <t>US Core Coverage Profile</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Care Experience Preference</t>
+          <t>Coverage Status</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Coverage.status+Coverage.period</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>9</v>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
           <t>Health Insurance Information</t>
@@ -1939,16 +1927,28 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+          <t>US Core Coverage Profile</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Coverage Type</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Coverage</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Coverage</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Coverage | Organization</t>
+          <t>Coverage.type</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Coverage Status</t>
+          <t>Relationship to Subscriber</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1984,7 +1984,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Coverage.status+Coverage.period</t>
+          <t>Coverage | relationship</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Coverage Type</t>
+          <t>Member Identifier</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2020,7 +2020,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Coverage.type</t>
+          <t>Coverage.identifier</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Relationship to Subscriber</t>
+          <t>Subscriber Identifier</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2056,7 +2056,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Coverage | relationship</t>
+          <t>Coverage.subscriberId</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Member Identifier</t>
+          <t>Group Number</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2092,7 +2092,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Coverage.identifier</t>
+          <t>Coverage.class</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -2107,64 +2107,54 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US Core Coverage Profile</t>
+          <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Subscriber Identifier</t>
+          <t>Payer Identifier</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>Coverage | Organization</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>Coverage | Organization</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Coverage.subscriberId</t>
+          <t>Coverage.payer | Organization.identifier</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="n">
+        <v>10</v>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Health Insurance Information</t>
+          <t>Health Status Assessments</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US Core Coverage Profile</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Group Number</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Coverage</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Coverage</t>
-        </is>
-      </c>
+          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Coverage.class</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -2174,42 +2164,40 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Health Insurance Information</t>
+          <t>Health Status Assessments</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Payer Identifier</t>
+          <t>Health Concerns</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Coverage | Organization</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Coverage | Organization</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Coverage.payer | Organization.identifier</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>10</v>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
           <t>Health Status Assessments</t>
@@ -2220,17 +2208,37 @@
           <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Functional Status</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -2241,32 +2249,40 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Health Concerns</t>
+          <t>Disability Status</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -2282,7 +2298,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Functional Status</t>
+          <t>Mental/Cognitive Status</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2321,12 +2337,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+          <t>US Core Observation Pregnancy Status Profile| US Core Observation Pregnancy Intent Profile</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Disability Status</t>
+          <t>Pregnancy Status</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2345,16 +2361,8 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -2370,23 +2378,23 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mental/Cognitive Status</t>
+          <t>Alcohol Use</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Simple | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Simple | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2409,32 +2417,40 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>US Core Observation Pregnancy Status Profile| US Core Observation Pregnancy Intent Profile</t>
+          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Pregnancy Status</t>
+          <t>Substance Use</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Simple | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Simple | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -2450,7 +2466,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Alcohol Use</t>
+          <t>Physical Activity</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2494,7 +2510,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Substance Use</t>
+          <t>SDOH Assessment</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2533,116 +2549,86 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+          <t>US Core Smoking Status Observation Profile</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Physical Activity</t>
+          <t>Smoking Status</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
+      <c r="A61" t="n">
+        <v>11</v>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Health Status Assessments</t>
+          <t>Immunizations</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>SDOH Assessment</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
+          <t>US Core Immunization Profile</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Immunization</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Health Status Assessments</t>
+          <t>Immunizations</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>US Core Smoking Status Observation Profile</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Smoking Status</t>
-        </is>
-      </c>
+          <t>US Core Immunization Profile</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -2650,16 +2636,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Immunizations</t>
+          <t>Laboratory</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US Core Immunization Profile</t>
+          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting | US Core Specimen Profile</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2668,7 +2654,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Immunization</t>
+          <t>Observation | DiagnosticReport | Specimen</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -2678,38 +2664,40 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Immunizations</t>
+          <t>Laboratory</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>US Core Immunization Profile</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Tests</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Immunization</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Immunization</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Immunization</t>
+          <t>Observation.code | DiagnosticReport.code</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>12</v>
-      </c>
+      <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
           <t>Laboratory</t>
@@ -2717,16 +2705,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting | US Core Specimen Profile</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Values/Results</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Observation | DiagnosticReport</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Observation | DiagnosticReport</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport | Specimen</t>
+          <t>Observation.value[x] | DiagnosticReport.result</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -2741,28 +2741,28 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+          <t>US Core Laboratory Result Observation Profile| US Core Specimen Profile</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tests</t>
+          <t>Specimen Type</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Observation | Specimen</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Observation | Specimen</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Observation.code | DiagnosticReport.code</t>
+          <t>Observation.specimen | Specimen</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Values/Results</t>
+          <t>Result Status</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2798,7 +2798,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Observation.value[x] | DiagnosticReport.result</t>
+          <t>Observation.status | DiagnosticReport.status</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -2813,28 +2813,28 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core Specimen Profile</t>
+          <t>US Core Laboratory Result Observation Profile</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Specimen Type</t>
+          <t>Result Unit of Measure</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Observation | Specimen</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Observation | Specimen</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Observation.specimen | Specimen</t>
+          <t>(Observation.value.ofType(Quantity)).code</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -2849,28 +2849,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+          <t>US Core Laboratory Result Observation Profile</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Result Status</t>
+          <t>Result Reference Range</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Observation.status | DiagnosticReport.status</t>
+          <t>Observation.referenceRange</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Result Unit of Measure</t>
+          <t>Result Interpretation</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2906,7 +2906,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Observation.value.ofType(Quantity)).code</t>
+          <t>Observation.interpretation</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -2921,28 +2921,28 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Result Reference Range</t>
+          <t>Specimen Identifier</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Specimen</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Specimen</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Observation.referenceRange</t>
+          <t>Specimen.identifier</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -2957,28 +2957,28 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Result Interpretation</t>
+          <t>Specimen Source Site</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Specimen</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Specimen</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Observation.interpretation</t>
+          <t>Specimen.collection.bodySite</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Specimen Identifier</t>
+          <t>Specimen Condition Acceptability</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3014,43 +3014,33 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Specimen.identifier</t>
+          <t>Specimen.condition</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
+      <c r="A74" t="n">
+        <v>13</v>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Laboratory</t>
+          <t>Medical Devices</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Specimen Source Site</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Specimen</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Specimen</t>
-        </is>
-      </c>
+          <t>US Core Implantable Device Profile</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Specimen.collection.bodySite</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -3060,33 +3050,33 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Laboratory</t>
+          <t>Medical Devices</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
+          <t>US Core Implantable Device Profile</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Specimen Condition Acceptability</t>
+          <t>Unique Device Identifier(s) for a Patient's Implantable Device(s)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Specimen</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Specimen</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Specimen.condition</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -3094,16 +3084,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Medical Devices</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>US Core Implantable Device Profile</t>
+          <t>US Core MedicationRequest Profile | US Core MedicationDispense Profile | US Core Medication Profile</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -3112,52 +3102,58 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Device</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+          <t>MedicationRequest | MedicationDispense | Medication</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>See Medication List Guidance</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>medication-list.html</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Medical Devices</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US Core Implantable Device Profile</t>
+          <t>US Core Medication Profile | US Core MedicationRequest Profile</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Unique Device Identifier(s) for a Patient's Implantable Device(s)</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>Medication | MedicationRequest</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>Medication | MedicationRequest</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>Medication.code | MedicationRequest.medication[x]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>14</v>
-      </c>
+      <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
           <t>Medications</t>
@@ -3165,28 +3161,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile | US Core MedicationDispense Profile | US Core Medication Profile</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+          <t>US Core MedicationRequest Profile</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Dose</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MedicationRequest</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>MedicationRequest</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>MedicationRequest | MedicationDispense | Medication</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>See Medication List Guidance</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>medication-list.html</t>
-        </is>
-      </c>
+          <t>MedicationRequest.dosageInstruction.doseAndRate</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -3197,28 +3197,28 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>US Core Medication Profile | US Core MedicationRequest Profile</t>
+          <t>US Core MedicationRequest Profile</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Dose Unit of Measure</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Medication | MedicationRequest</t>
+          <t>MedicationRequest</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Medication | MedicationRequest</t>
+          <t>MedicationRequest</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Medication.code | MedicationRequest.medication[x]</t>
+          <t>MedicationRequest.dosageInstruction.doseAndRate</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Dose</t>
+          <t>Indication</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3254,7 +3254,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>MedicationRequest.dosageInstruction.doseAndRate</t>
+          <t>MedicationRequest.reasonCode | Medication.reasonReference</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Dose Unit of Measure</t>
+          <t>Medication Instructions</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3290,7 +3290,7 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>MedicationRequest.dosageInstruction.doseAndRate</t>
+          <t>MedicationRequest.dosageInstruction</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Indication</t>
+          <t>Medication Adherence</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3323,10 +3323,14 @@
           <t>MedicationRequest</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>US Core Medication Adherence Extension</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>MedicationRequest.reasonCode | Medication.reasonReference</t>
+          <t>MedicationRequest.extension.where(url='Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication-adherence')</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -3341,68 +3345,54 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
+          <t>US Core MedicationDispense Profile</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Medication Instructions</t>
+          <t>Fill Status</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
+          <t>Medication | MedicationDispense</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
+          <t>Medication | MedicationDispense</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>MedicationRequest.dosageInstruction</t>
+          <t>MedicationDispense</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" t="n">
+        <v>15</v>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Medication Adherence</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>US Core Medication Adherence Extension</t>
-        </is>
-      </c>
+          <t>US Core Patient Profile | US Core Observation Sexual Orientation Profile | US Core Observation Sexual Orientation Profile | US Core Observation Sexual Orientation Profile |US Core Observation Occupation Profile</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>MedicationRequest.extension.where(url='Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication-adherence')</t>
+          <t>Patient | Observation</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -3412,42 +3402,40 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>US Core MedicationDispense Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Fill Status</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Medication | MedicationDispense</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Medication | MedicationDispense</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>MedicationDispense</t>
+          <t>Patient.name.given</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>15</v>
-      </c>
+      <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
           <t>Patient Demographics</t>
@@ -3455,16 +3443,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Observation Sexual Orientation Profile | US Core Observation Sexual Orientation Profile | US Core Observation Sexual Orientation Profile |US Core Observation Occupation Profile</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Patient | Observation</t>
+          <t>Patient.name.family</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Previous Name</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3500,7 +3500,7 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Patient.name.given</t>
+          <t>Patient.name</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Middle Name (including middle initial)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3536,7 +3536,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Patient.name.family</t>
+          <t>Patient.name.given</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Previous Name</t>
+          <t>Suffix</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3572,7 +3572,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Patient.name</t>
+          <t>Patient.name.suffix</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Patient Profile | US Core Sex Extension</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Middle Name (including middle initial)</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3605,10 +3605,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>US Core Sex Extension</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Patient.name.given</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-sex')</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -3628,7 +3632,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Suffix</t>
+          <t>Date of Birth</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3644,7 +3648,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Patient.name.suffix</t>
+          <t>Patient.birthDate</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -3659,12 +3663,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Sex Extension</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Date of Death</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3677,14 +3681,10 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>US Core Sex Extension</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-sex')</t>
+          <t>Patient.deceased[x]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -3699,12 +3699,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Race Extension</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Date of Birth</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3717,10 +3717,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>US Core Race Extension</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Patient.birthDate</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -3735,12 +3739,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Patient Profile | US Core Ethnicity Extension</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Date of Death</t>
+          <t>Ethnicity</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3753,10 +3757,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>US Core Ethnicity Extension</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Patient.deceased[x]</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -3771,12 +3779,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>US Core Race Extension</t>
+          <t>US Core Patient Profile | US Core Tribal Affiliation Extension</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Tribal Affiliation</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3791,12 +3799,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>US Core Race Extension</t>
+          <t>US Core Tibal Affiliation Extension</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-tribal-affiliation')</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -3811,12 +3819,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Ethnicity Extension</t>
+          <t>US Core Patient Profile | US Core Gender Identity Extension</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Ethnicity</t>
+          <t>Gender Identity</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3831,12 +3839,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>US Core Ethnicity Extension</t>
+          <t>Gender Identity Extension</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity')</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -3851,32 +3859,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Tribal Affiliation Extension</t>
+          <t>US Core Observation Sexual Orientation Profile</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tribal Affiliation</t>
+          <t>Sexual Orientation</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>US Core Tibal Affiliation Extension</t>
-        </is>
-      </c>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-tribal-affiliation')</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -3891,12 +3895,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Gender Identity Extension</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Gender Identity</t>
+          <t>Preferred Language</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3909,14 +3913,10 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Gender Identity Extension</t>
-        </is>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity')</t>
+          <t>Patient.communication</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -3931,28 +3931,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>US Core Observation Sexual Orientation Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Sexual Orientation</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient.address</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Preferred Language</t>
+          <t>Previous Address</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3988,7 +3988,7 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Patient.communication</t>
+          <t>Patient.address</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4024,7 +4024,7 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Patient.address</t>
+          <t>Patient.telecom</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Previous Address</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4060,7 +4060,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Patient.address</t>
+          <t>Patient.telecom</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -4075,28 +4075,28 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Related Person's Name</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Patient.telecom</t>
+          <t>RelatedPerson.name</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -4111,28 +4111,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Related Person's Relationship</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Patient.telecom</t>
+          <t>RelatedPerson.relationship</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -4147,28 +4147,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core Observation Occupation Profile</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Related Person's Name</t>
+          <t>Occupation</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>RelatedPerson.name</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -4183,64 +4183,54 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core Observation Occupation Profile</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Related Person's Relationship</t>
+          <t>Occupation Industry</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>RelatedPerson.relationship</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
+      <c r="A107" t="n">
+        <v>16</v>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Patient Summary and Plan</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US Core Observation Occupation Profile</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Occupation</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>US Core CarePlan Profile</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -4250,33 +4240,33 @@
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Patient Summary and Plan</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US Core Observation Occupation Profile</t>
+          <t>US Core CarePlan Profile</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Occupation Industry</t>
+          <t>Assessment and Plan of Treatment</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -4284,25 +4274,33 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Patient Summary and Plan</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US Core CarePlan Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Condition</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>CarePlan</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -4312,42 +4310,40 @@
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Patient Summary and Plan</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>US Core CarePlan Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Assessment and Plan of Treatment</t>
+          <t>Date of Resolution</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CarePlan</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>CarePlan</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>CarePlan</t>
+          <t>Condition.abatement[x]</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>17</v>
-      </c>
+      <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
           <t>Problems</t>
@@ -4358,7 +4354,11 @@
           <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Date of Diagnosis</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>Condition</t>
@@ -4369,10 +4369,14 @@
           <t>Condition</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>assertedDate Extension</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Condition.extension.where(url='http://hl7.org/fhir/StructureDefinition/condition-assertedDate') | Condition.onset[x] | Condition.onsetDate</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -4392,7 +4396,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Date of Resolution</t>
+          <t>SDOH Problems/Health Concerns</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4408,47 +4412,41 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Condition.abatement[x]</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr"/>
+      <c r="A113" t="n">
+        <v>18</v>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Date of Diagnosis</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>assertedDate Extension</t>
-        </is>
-      </c>
+          <t>US Core Procedure Profile | US Core ServiceRequest Profile</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Condition.extension.where(url='http://hl7.org/fhir/StructureDefinition/condition-assertedDate') | Condition.onset[x] | Condition.onsetDate</t>
+          <t>Procedure | ServiceRequest</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -4458,50 +4456,40 @@
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t>US Core Procedure Profile</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SDOH Problems/Health Concerns</t>
+          <t>Procedure</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Procedure</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Procedure</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>18</v>
-      </c>
+      <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
           <t>Procedures</t>
@@ -4509,16 +4497,28 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile | US Core ServiceRequest Profile</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
+          <t>US Core Procedure Profile|US Core DiagnosticReport Profile for Report and Note Exchange|US Core Immunization Profile</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Time of Procedure</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Procedure | DiagnosticRepor | Immunization</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Procedure | DiagnosticRepor | Immunization</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Procedure | ServiceRequest</t>
+          <t>Procedure.pertormed[x] | DiagnosticReport.effective[x] | Immunization.occurrence[x]</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -4533,28 +4533,28 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile</t>
+          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t>Reason for Referral</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t>ServiceRequest | Procedure</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t>ServiceRequest | Procedure</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t>ServiceRequest.reasonCode | ServiceRequest.reasonReference | Procedure.reasonCode | Procedure.reasonReference</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -4569,117 +4569,113 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile|US Core DiagnosticReport Profile for Report and Note Exchange|US Core Immunization Profile</t>
+          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Time of Procedure</t>
+          <t>SDOH Interventions</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Procedure | DiagnosticRepor | Immunization</t>
+          <t>ServiceRequest | Procedure</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Procedure | DiagnosticRepor | Immunization</t>
+          <t>ServiceRequest | Procedure</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Procedure.pertormed[x] | DiagnosticReport.effective[x] | Immunization.occurrence[x]</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+          <t>ServiceRequest | Procedure</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr"/>
+      <c r="A118" t="n">
+        <v>19</v>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Procedures</t>
+          <t>Provenance</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Reason for Referral</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>ServiceRequest | Procedure</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>ServiceRequest | Procedure</t>
-        </is>
-      </c>
+          <t>US Core Provenance Profile</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>ServiceRequest.reasonCode | ServiceRequest.reasonReference | Procedure.reasonCode | Procedure.reasonReference</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>See Basic Provenance Guidance</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>basic-provenance.html</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Procedures</t>
+          <t>Provenance</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
+          <t>US Core Provenance Profile</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SDOH Interventions</t>
+          <t>Author Time Stamp</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ServiceRequest | Procedure</t>
+          <t>Provenance</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ServiceRequest | Procedure</t>
+          <t>Provenance</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>ServiceRequest | Procedure</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Provenance.recorded</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>19</v>
-      </c>
+      <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
           <t>Provenance</t>
@@ -4690,57 +4686,51 @@
           <t>US Core Provenance Profile</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Author Organization</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Provenance</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Provenance</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>See Basic Provenance Guidance</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>basic-provenance.html</t>
-        </is>
-      </c>
+          <t>Provenance.agent</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr"/>
+      <c r="A121" t="n">
+        <v>20</v>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Vital Signs</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Author Time Stamp</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Provenance</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Provenance</t>
-        </is>
-      </c>
+          <t>US Core Vital Signs Profile</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Provenance.recorded</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -4750,42 +4740,40 @@
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Vital Signs</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t xml:space="preserve">US Core Average Blood Pressure Profile </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Author Organization</t>
+          <t>Average Blood Pressure</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Provenance.agent</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>20</v>
-      </c>
+      <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
           <t>Vital Signs</t>
@@ -4793,12 +4781,24 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>US Core Vital Signs Profile</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
+          <t xml:space="preserve">US Core Blood Pressure Profile </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Diastolic blood pressure</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
@@ -4817,12 +4817,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Average Blood Pressure Profile </t>
+          <t xml:space="preserve">US Core Blood Pressure Profile </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Average Blood Pressure</t>
+          <t>Systolic blood pressure</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4853,12 +4853,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Blood Pressure Profile </t>
+          <t xml:space="preserve">US Core Body Height Profile </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Diastolic blood pressure</t>
+          <t>Body height</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4889,12 +4889,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Blood Pressure Profile </t>
+          <t xml:space="preserve">US Core Body Weight Profile </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Systolic blood pressure</t>
+          <t>Body weight</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4925,12 +4925,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Height Profile </t>
+          <t xml:space="preserve">US Core Heart Rate Profile </t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Body height</t>
+          <t>Heart rate</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4961,12 +4961,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Weight Profile </t>
+          <t xml:space="preserve">US Core Respiratory Rate Profile </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Body weight</t>
+          <t>Respiratory rate</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4997,12 +4997,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Heart Rate Profile </t>
+          <t xml:space="preserve">US Core Body Temperature Profile </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Heart rate</t>
+          <t>Body temperature</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5033,12 +5033,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Respiratory Rate Profile </t>
+          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Respiratory rate</t>
+          <t>Pulse oximetry</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5069,12 +5069,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Temperature Profile </t>
+          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Body temperature</t>
+          <t>Inhaled oxygen concentration</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5105,12 +5105,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+          <t xml:space="preserve">US Core Pediatric BMI for Age Observation Profile </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Pulse oximetry</t>
+          <t>BMI Percentile (2-20 years old)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5141,12 +5141,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+          <t xml:space="preserve">US Core Pediatric Weight for Height Observation Profile </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Inhaled oxygen concentration</t>
+          <t>Weight-for-length Percentile (Birth - 36 months)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5177,12 +5177,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pediatric BMI for Age Observation Profile </t>
+          <t>US Core Pediatric Head Occipital Frontal Circumference Percentile Profile</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>BMI Percentile (2-20 years old)</t>
+          <t>Occipital Frontal Head Circumference Percentile (Birth - 36 months)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5203,78 +5203,6 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr"/>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Vital Signs</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">US Core Pediatric Weight for Height Observation Profile </t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Weight-for-length Percentile (Birth - 36 months)</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr"/>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Vital Signs</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>US Core Pediatric Head Occipital Frontal Circumference Percentile Profile</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Occipital Frontal Head Circumference Percentile (Birth - 36 months)</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/input/images/tables/uscdi-table.xlsx
+++ b/input/images/tables/uscdi-table.xlsx
@@ -4502,7 +4502,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Time of Procedure</t>
+          <t>Performance Time</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">

--- a/input/images/tables/uscdi-table.xlsx
+++ b/input/images/tables/uscdi-table.xlsx
@@ -467,6 +467,14 @@
           <t>comment_link</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr"/>
+      <c r="M1" t="inlineStr"/>
+      <c r="N1" t="inlineStr"/>
+      <c r="O1" t="inlineStr"/>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -493,6 +501,14 @@
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -529,6 +545,14 @@
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -565,6 +589,14 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -601,6 +633,14 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -637,6 +677,14 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -663,6 +711,14 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -699,6 +755,14 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -735,6 +799,14 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -771,6 +843,14 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -807,6 +887,14 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -843,6 +931,14 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -877,6 +973,14 @@
           <t>clinical-notes.html</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -913,6 +1017,14 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -949,6 +1061,14 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -985,6 +1105,14 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1021,6 +1149,14 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1057,6 +1193,14 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1085,83 +1229,91 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Clinical Tests</t>
+          <t>Clinical Notes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core DocumentReference Profile</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Clinical Tests</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+          <t>Operative Note</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>DocumentReference</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Clinical Tests</t>
+          <t>Clinical Notes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core DocumentReference Profile</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Clinical Test</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+          <t>Emergency Department Note</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>DocumentReference</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Clinical Tests</t>
@@ -1174,7 +1326,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Clinical Test Result/Report</t>
+          <t>Clinical Tests</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1195,14 +1347,20 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging</t>
+          <t>Clinical Tests</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1210,9 +1368,21 @@
           <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Clinical Test</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Observation | DiagnosticReport</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Observation | DiagnosticReport</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
@@ -1221,12 +1391,20 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging</t>
+          <t>Clinical Tests</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1236,7 +1414,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging Test</t>
+          <t>Clinical Test Result/Report</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1257,9 +1435,19 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Diagnostic Imaging</t>
@@ -1270,21 +1458,9 @@
           <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Diagnostic Imaging Result/Report</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
@@ -1293,71 +1469,107 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>6</v>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Diagnostic Imaging</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Diagnostic Imaging Test</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Observation | DiagnosticReport</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Observation | DiagnosticReport</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Diagnostic Imaging</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Diagnostic Imaging Result/Report</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Encounter.identifier</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="n">
+        <v>6</v>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Encounter</t>
@@ -1368,29 +1580,25 @@
           <t>US Core Encounter Profile</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Encounter</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Encounter</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Encounter.type</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1401,32 +1609,40 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>US Core Condition Encounter Diagnosis Profile</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Diagnosis</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Condition.code</t>
+          <t>Encounter.identifier</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -1442,7 +1658,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1458,11 +1674,19 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Encounter.period</t>
+          <t>Encounter.type</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1473,32 +1697,40 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>US Core Condition Encounter Diagnosis Profile</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Diagnosis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Encounter.location.location</t>
+          <t>Condition.code</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -1514,7 +1746,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1530,84 +1762,112 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Encounter.hospitalization.dischargeDisposition</t>
+          <t>Encounter.period</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>7</v>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Facility Information</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+          <t>US Core Encounter Profile</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Encounter</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Encounter</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>See Facility Information Guidance</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>StructureDefinition-us-core-location.html</t>
-        </is>
-      </c>
+          <t>Encounter.location.location</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Facility Information</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Location.identifier</t>
+          <t>Encounter.hospitalization.dischargeDisposition</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Facility Information</t>
@@ -1618,29 +1878,33 @@
           <t>US Core Location Profile</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Location.type</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>See Facility Information Guidance</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>StructureDefinition-us-core-location.html</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1656,7 +1920,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1672,76 +1936,112 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Location.name</t>
+          <t>Location.identifier</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>8</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Goals and Preferences</t>
+          <t>Facility Information</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>US Core Goal Profile</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+          <t>US Core Location Profile</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Location.type</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Goals and Preferences</t>
+          <t>Facility Information</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>US Core Goal Profile</t>
+          <t>US Core Location Profile</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Patient Goals</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Location.name</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="n">
+        <v>8</v>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Goals and Preferences</t>
@@ -1752,37 +2052,25 @@
           <t>US Core Goal Profile</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>SDOH Goals</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Goal</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Goal</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>Goal</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -1793,32 +2081,40 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>US Core Treatment Intervention Preference Profile</t>
+          <t>US Core Goal Profile</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Treatment Intervention Preference</t>
+          <t>Patient Goals</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -1829,97 +2125,141 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US Core Care Experience Preference Profile</t>
+          <t>US Core Goal Profile</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Care Experience Preference</t>
+          <t>SDOH Goals</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+          <t>Goal</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>9</v>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Health Insurance Information</t>
+          <t>Goals and Preferences</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+          <t>US Core Treatment Intervention Preference Profile</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Treatment Intervention Preference</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Coverage | Organization</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Health Insurance Information</t>
+          <t>Goals and Preferences</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US Core Coverage Profile</t>
+          <t>US Core Care Experience Preference Profile</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Coverage Status</t>
+          <t>Care Experience Preference</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Coverage.status+Coverage.period</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" t="n">
+        <v>9</v>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Health Insurance Information</t>
@@ -1927,32 +2267,28 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>US Core Coverage Profile</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Coverage Type</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Coverage</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Coverage</t>
-        </is>
-      </c>
+          <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Coverage.type</t>
+          <t>Coverage | Organization</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -1968,7 +2304,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Relationship to Subscriber</t>
+          <t>Coverage Status</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1984,11 +2320,19 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Coverage | relationship</t>
+          <t>Coverage.status+Coverage.period</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -2004,7 +2348,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Member Identifier</t>
+          <t>Coverage Type</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2020,11 +2364,19 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Coverage.identifier</t>
+          <t>Coverage.type</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -2040,7 +2392,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Subscriber Identifier</t>
+          <t>Relationship to Subscriber</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2056,11 +2408,19 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Coverage.subscriberId</t>
+          <t>Coverage | relationship</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -2076,7 +2436,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Group Number</t>
+          <t>Member Identifier</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2092,11 +2452,19 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Coverage.class</t>
+          <t>Coverage.identifier</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -2107,97 +2475,133 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
+          <t>US Core Coverage Profile</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Payer Identifier</t>
+          <t>Subscriber Identifier</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Coverage | Organization</t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Coverage | Organization</t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Coverage.payer | Organization.identifier</t>
+          <t>Coverage.subscriberId</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>10</v>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Health Status Assessments</t>
+          <t>Health Insurance Information</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+          <t>US Core Coverage Profile</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Group Number</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Coverage</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Coverage</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
+          <t>Coverage.class</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Health Status Assessments</t>
+          <t>Health Insurance Information</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Health Concerns</t>
+          <t>Payer Identifier</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Coverage | Organization</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Coverage | Organization</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Coverage.payer | Organization.identifier</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="n">
+        <v>10</v>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Health Status Assessments</t>
@@ -2208,37 +2612,25 @@
           <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Functional Status</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -2249,40 +2641,40 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Disability Status</t>
+          <t>Health Concerns</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -2298,7 +2690,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mental/Cognitive Status</t>
+          <t>Functional Status</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2327,6 +2719,14 @@
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -2337,12 +2737,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>US Core Observation Pregnancy Status Profile| US Core Observation Pregnancy Intent Profile</t>
+          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Pregnancy Status</t>
+          <t>Disability Status</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2361,8 +2761,24 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -2378,23 +2794,23 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Alcohol Use</t>
+          <t>Mental/Cognitive Status</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2407,6 +2823,14 @@
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -2417,40 +2841,40 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+          <t>US Core Observation Pregnancy Status Profile| US Core Observation Pregnancy Intent Profile</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Substance Use</t>
+          <t>Pregnancy Status</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -2466,7 +2890,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Physical Activity</t>
+          <t>Alcohol Use</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2495,6 +2919,14 @@
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -2510,7 +2942,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SDOH Assessment</t>
+          <t>Substance Use</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2539,6 +2971,14 @@
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -2549,103 +2989,157 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>US Core Smoking Status Observation Profile</t>
+          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Smoking Status</t>
+          <t>Physical Activity</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Simple | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Simple | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>11</v>
-      </c>
+      <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Immunizations</t>
+          <t>Health Status Assessments</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>US Core Immunization Profile</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SDOH Assessment</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Simple | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Simple | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Immunization</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Immunizations</t>
+          <t>Health Status Assessments</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>US Core Immunization Profile</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>US Core Smoking Status Observation Profile</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Smoking Status</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Immunization</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Immunization</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Immunization</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Laboratory</t>
+          <t>Immunizations</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting | US Core Specimen Profile</t>
+          <t>US Core Immunization Profile</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2654,86 +3148,112 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport | Specimen</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Laboratory</t>
+          <t>Immunizations</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+          <t>US Core Immunization Profile</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tests</t>
+          <t>Immunizations</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Observation.code | DiagnosticReport.code</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Laboratory</t>
+          <t>Immunizations</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+          <t>US Core Immunization Profile</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Values/Results</t>
+          <t>Lot Number</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Observation.value[x] | DiagnosticReport.result</t>
+          <t>Immunization.lotNumber</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
+      <c r="A66" t="n">
+        <v>12</v>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Laboratory</t>
@@ -2741,32 +3261,28 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core Specimen Profile</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Specimen Type</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Observation | Specimen</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Observation | Specimen</t>
-        </is>
-      </c>
+          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting | US Core Specimen Profile</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Observation.specimen | Specimen</t>
+          <t>Observation | DiagnosticReport | Specimen</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -2782,7 +3298,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Result Status</t>
+          <t>Tests</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2798,11 +3314,19 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Observation.status | DiagnosticReport.status</t>
+          <t>Observation.code | DiagnosticReport.code</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -2813,32 +3337,40 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
+          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Result Unit of Measure</t>
+          <t>Values/Results</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Observation.value.ofType(Quantity)).code</t>
+          <t>Observation.value[x] | DiagnosticReport.result</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -2849,32 +3381,40 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
+          <t>US Core Laboratory Result Observation Profile| US Core Specimen Profile</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Result Reference Range</t>
+          <t>Specimen Type</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Observation | Specimen</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Observation | Specimen</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Observation.referenceRange</t>
+          <t>Observation.specimen | Specimen</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -2885,32 +3425,40 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
+          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Result Interpretation</t>
+          <t>Result Status</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Observation.interpretation</t>
+          <t>Observation.status | DiagnosticReport.status</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -2921,32 +3469,40 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
+          <t>US Core Laboratory Result Observation Profile</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Specimen Identifier</t>
+          <t>Result Unit of Measure</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Specimen</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Specimen</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Specimen.identifier</t>
+          <t>(Observation.value.ofType(Quantity)).code</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -2957,32 +3513,40 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
+          <t>US Core Laboratory Result Observation Profile</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Specimen Source Site</t>
+          <t>Result Reference Range</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Specimen</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Specimen</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Specimen.collection.bodySite</t>
+          <t>Observation.referenceRange</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -2993,203 +3557,255 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
+          <t>US Core Laboratory Result Observation Profile</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Specimen Condition Acceptability</t>
+          <t>Result Interpretation</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Specimen</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Specimen</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Specimen.condition</t>
+          <t>Observation.interpretation</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>13</v>
-      </c>
+      <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Medical Devices</t>
+          <t>Laboratory</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US Core Implantable Device Profile</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+          <t>US Core Specimen Profile</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Specimen Identifier</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Specimen</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Specimen</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>Specimen.identifier</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Medical Devices</t>
+          <t>Laboratory</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>US Core Implantable Device Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Unique Device Identifier(s) for a Patient's Implantable Device(s)</t>
+          <t>Specimen Source Site</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>Specimen</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>Specimen</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>Specimen.collection.bodySite</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>14</v>
-      </c>
+      <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Laboratory</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile | US Core MedicationDispense Profile | US Core Medication Profile</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+          <t>US Core Specimen Profile</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Specimen Condition Acceptability</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Specimen</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Specimen</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>MedicationRequest | MedicationDispense | Medication</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>See Medication List Guidance</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>medication-list.html</t>
-        </is>
-      </c>
+          <t>Specimen.condition</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
+      <c r="A77" t="n">
+        <v>13</v>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Medical Devices</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US Core Medication Profile | US Core MedicationRequest Profile</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Medications</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Medication | MedicationRequest</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Medication | MedicationRequest</t>
-        </is>
-      </c>
+          <t>US Core Implantable Device Profile</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Medication.code | MedicationRequest.medication[x]</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Medical Devices</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
+          <t>US Core Implantable Device Profile</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Dose</t>
+          <t>Unique Device Identifier(s) for a Patient's Implantable Device(s)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>MedicationRequest.dosageInstruction.doseAndRate</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr"/>
+      <c r="A79" t="n">
+        <v>14</v>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Medications</t>
@@ -3197,32 +3813,36 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Dose Unit of Measure</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
+          <t>US Core MedicationRequest Profile | US Core MedicationDispense Profile | US Core Medication Profile</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>MedicationRequest.dosageInstruction.doseAndRate</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+          <t>MedicationRequest | MedicationDispense | Medication</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>See Medication List Guidance</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>medication-list.html</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -3233,32 +3853,40 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
+          <t>US Core Medication Profile | US Core MedicationRequest Profile</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Indication</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
+          <t>Medication | MedicationRequest</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
+          <t>Medication | MedicationRequest</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>MedicationRequest.reasonCode | Medication.reasonReference</t>
+          <t>Medication.code | MedicationRequest.medication[x]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -3274,7 +3902,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Medication Instructions</t>
+          <t>Dose</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3290,11 +3918,19 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>MedicationRequest.dosageInstruction</t>
+          <t>MedicationRequest.dosageInstruction.doseAndRate</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -3310,7 +3946,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Medication Adherence</t>
+          <t>Dose Unit of Measure</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3323,18 +3959,22 @@
           <t>MedicationRequest</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>US Core Medication Adherence Extension</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>MedicationRequest.extension.where(url='Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication-adherence')</t>
+          <t>MedicationRequest.dosageInstruction.doseAndRate</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -3345,254 +3985,310 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US Core MedicationDispense Profile</t>
+          <t>US Core MedicationRequest Profile | US Core MedicationDispense Profile</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Fill Status</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Medication | MedicationDispense</t>
+          <t>MedicationRequest | MedicationDispense</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Medication | MedicationDispense</t>
+          <t>MedicationRequest | MedicationDispense</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>MedicationDispense</t>
+          <t>MedicationRequest.dosageInstruction.route | MedicationDispense.dosageInstruction.route</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>15</v>
-      </c>
+      <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Observation Sexual Orientation Profile | US Core Observation Sexual Orientation Profile | US Core Observation Sexual Orientation Profile |US Core Observation Occupation Profile</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+          <t>US Core MedicationRequest Profile</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Indication</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MedicationRequest</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>MedicationRequest</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Patient | Observation</t>
+          <t>MedicationRequest.reasonCode | Medication.reasonReference</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core MedicationRequest Profile</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Medication Instructions</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>MedicationRequest</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>MedicationRequest</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Patient.name.given</t>
+          <t>MedicationRequest.dosageInstruction</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core MedicationRequest Profile</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Medication Adherence</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>MedicationRequest</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
+          <t>MedicationRequest</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>US Core Medication Adherence Extension</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Patient.name.family</t>
+          <t>MedicationRequest.extension.where(url='Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication-adherence')</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core MedicationDispense Profile</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Previous Name</t>
+          <t>Fill Status</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>MedicationDispense</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>MedicationDispense</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Patient.name</t>
+          <t>MedicationDispense</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
+      <c r="A88" t="n">
+        <v>15</v>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Middle Name (including middle initial)</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> US Core Observation ADI Documentation Profile| US Core ADI DocumentReference Profile | US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Patient.name.given</t>
-        </is>
-      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t xml:space="preserve"> US Core Observation ADI Documentation Profile| US Core ADI DocumentReference Profile</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Suffix</t>
+          <t>Advance Directive Observation</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>Observation | DocumentReference</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>Observation | DocumentReference</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Patient.name.suffix</t>
+          <t>Observation | DocumentReference</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Sex Extension</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Sex Parameter for Clinical Use</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3607,251 +4303,283 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>US Core Sex Extension</t>
+          <t>Patient Sex Parameter for Clinical Use Extension</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-sex')</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/StructureDefinition/patient-sexParameterForClinicalUse')</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
+      <c r="A91" t="n">
+        <v>16</v>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Date of Birth</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
+          <t>US Core MedicationRequest Profile | US Core ServiceRequest Profile</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Patient.birthDate</t>
+          <t>MedicationRequest | ServiceRequest</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core MedicationRequest Profile</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Date of Death</t>
+          <t>Medication Order</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>MedicationRequest</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>MedicationRequest</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Patient.deceased[x]</t>
+          <t>MedicationRequest</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US Core Race Extension</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Laboratory Order</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>US Core Race Extension</t>
-        </is>
-      </c>
+          <t>ServiceRequest</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Ethnicity Extension</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ethnicity</t>
+          <t>Diagnostic Imaging Order</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>US Core Ethnicity Extension</t>
-        </is>
-      </c>
+          <t>ServiceRequest</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Tribal Affiliation Extension</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Tribal Affiliation</t>
+          <t>Clinical Test Order</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>US Core Tibal Affiliation Extension</t>
-        </is>
-      </c>
+          <t>ServiceRequest</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-tribal-affiliation')</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Gender Identity Extension</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Gender Identity</t>
+          <t>Procedure Order</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Gender Identity Extension</t>
-        </is>
-      </c>
+          <t>ServiceRequest</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity')</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr"/>
+      <c r="A97" t="n">
+        <v>17</v>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Patient Demographics</t>
@@ -3859,32 +4587,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US Core Observation Sexual Orientation Profile</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Sexual Orientation</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>US Core Patient Profile | US Core Observation Sexual Orientation Profile | US Core Observation Sexual Orientation Profile | US Core Observation Sexual Orientation Profile |US Core Observation Occupation Profile</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient | Observation</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -3900,7 +4624,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Preferred Language</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3916,11 +4640,19 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Patient.communication</t>
+          <t>Patient.name.given</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -3936,7 +4668,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3952,11 +4684,19 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Patient.address</t>
+          <t>Patient.name.family</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -3972,7 +4712,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Previous Address</t>
+          <t>Previous Name</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3988,11 +4728,19 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Patient.address</t>
+          <t>Patient.name</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -4008,7 +4756,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Middle Name (including middle initial)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4024,11 +4772,19 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Patient.telecom</t>
+          <t>Patient.name.given</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -4044,7 +4800,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Suffix</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4060,11 +4816,19 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Patient.telecom</t>
+          <t>Patient.name.suffix</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -4075,32 +4839,40 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Related Person's Name</t>
+          <t>Name to Use</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>RelatedPerson.name</t>
+          <t>Patient.name.use</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -4111,32 +4883,44 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Related Person's Relationship</t>
+          <t>Pronouns</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Individual Pronouns Extension</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>RelatedPerson.relationship</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/StructureDefinition/individual-pronouns')</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -4147,32 +4931,44 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US Core Observation Occupation Profile</t>
+          <t>US Core Patient Profile | US Core Sex Extension</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Occupation</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>US Core Sex Extension</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-sex')</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -4183,550 +4979,704 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US Core Observation Occupation Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Occupation Industry</t>
+          <t>Date of Birth</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient.birthDate</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>16</v>
-      </c>
+      <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Patient Summary and Plan</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US Core CarePlan Profile</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Date of Death</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>CarePlan</t>
+          <t>Patient.deceased[x]</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Patient Summary and Plan</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US Core CarePlan Profile</t>
+          <t>US Core Race Extension</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Assessment and Plan of Treatment</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CarePlan</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>CarePlan</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>US Core Race Extension</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>CarePlan</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>17</v>
-      </c>
+      <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>US Core Patient Profile | US Core Ethnicity Extension</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Ethnicity</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>US Core Ethnicity Extension</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t>US Core Patient Profile | US Core Tribal Affiliation Extension</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Date of Resolution</t>
+          <t>Tribal Affiliation</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>US Core Tibal Affiliation Extension</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Condition.abatement[x]</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-tribal-affiliation')</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t>US Core Patient Profile | US Core Gender Identity Extension</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Date of Diagnosis</t>
+          <t>Gender Identity</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>assertedDate Extension</t>
+          <t>Gender Identity Extension</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Condition.extension.where(url='http://hl7.org/fhir/StructureDefinition/condition-assertedDate') | Condition.onset[x] | Condition.onsetDate</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity')</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t>US Core Observation Sexual Orientation Profile</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>SDOH Problems/Health Concerns</t>
+          <t>Sexual Orientation</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>18</v>
-      </c>
+      <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Procedures</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile | US Core ServiceRequest Profile</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Preferred Language</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Procedure | ServiceRequest</t>
+          <t>Patient.communication</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Procedures</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile</t>
+          <t>US Core Patient Profile | US Core Encounter Profile</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t>Interpreter Needed</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t>Patient | Encounter</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Procedure</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr"/>
+          <t>Patient | Encounter</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>US Core Interpreter Required Extension</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t xml:space="preserve">Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-required'') | Encounter.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-required'') </t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Procedures</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile|US Core DiagnosticReport Profile for Report and Note Exchange|US Core Immunization Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Performance Time</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Procedure | DiagnosticRepor | Immunization</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Procedure | DiagnosticRepor | Immunization</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Procedure.pertormed[x] | DiagnosticReport.effective[x] | Immunization.occurrence[x]</t>
+          <t>Patient.address</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Procedures</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Reason for Referral</t>
+          <t>Previous Address</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ServiceRequest | Procedure</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ServiceRequest | Procedure</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>ServiceRequest.reasonCode | ServiceRequest.reasonReference | Procedure.reasonCode | Procedure.reasonReference</t>
+          <t>Patient.address</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Procedures</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>SDOH Interventions</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ServiceRequest | Procedure</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ServiceRequest | Procedure</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>ServiceRequest | Procedure</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Patient.telecom</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>19</v>
-      </c>
+      <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Provenance</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>See Basic Provenance Guidance</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>basic-provenance.html</t>
-        </is>
-      </c>
+          <t>Patient.telecom</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Author Time Stamp</t>
+          <t>Related Person's Name</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Provenance.recorded</t>
+          <t>RelatedPerson.name</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Author Organization</t>
+          <t>Related Person's Relationship</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Provenance.agent</t>
+          <t>RelatedPerson.relationship</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>20</v>
-      </c>
+      <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>US Core Vital Signs Profile</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
+          <t>US Core Observation Occupation Profile</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Occupation</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
@@ -4735,22 +5685,30 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Average Blood Pressure Profile </t>
+          <t>US Core Observation Occupation Profile</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Average Blood Pressure</t>
+          <t>Occupation Industry</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4771,438 +5729,1234 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr"/>
+      <c r="A123" t="n">
+        <v>18</v>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Patient Summary and Plan</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Blood Pressure Profile </t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Diastolic blood pressure</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>US Core CarePlan Profile</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Patient Summary and Plan</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Blood Pressure Profile </t>
+          <t>US Core CarePlan Profile</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Systolic blood pressure</t>
+          <t>Assessment and Plan of Treatment</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr"/>
+      <c r="A125" t="n">
+        <v>19</v>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Height Profile </t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Body height</t>
-        </is>
-      </c>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Weight Profile </t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Body weight</t>
+          <t>Date of Resolution</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition.abatement[x]</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Heart Rate Profile </t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Heart rate</t>
+          <t>Date of Diagnosis</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr"/>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>assertedDate Extension</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition.extension.where(url='http://hl7.org/fhir/StructureDefinition/condition-assertedDate') | Condition.onset[x] | Condition.onsetDate</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Respiratory Rate Profile </t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Respiratory rate</t>
+          <t>SDOH Problems/Health Concerns</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
+      <c r="A129" t="n">
+        <v>20</v>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Temperature Profile </t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Body temperature</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>US Core Procedure Profile | US Core ServiceRequest Profile</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Procedure | ServiceRequest</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+          <t>US Core Procedure Profile</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Pulse oximetry</t>
+          <t>Procedure</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Procedure</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Procedure</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Procedure</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+          <t>US Core Procedure Profile|US Core DiagnosticReport Profile for Report and Note Exchange|US Core Immunization Profile</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Inhaled oxygen concentration</t>
+          <t>Performance Time</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Procedure | DiagnosticRepor | Immunization</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Procedure | DiagnosticRepor | Immunization</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Procedure.pertormed[x] | DiagnosticReport.effective[x] | Immunization.occurrence[x]</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pediatric BMI for Age Observation Profile </t>
+          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>BMI Percentile (2-20 years old)</t>
+          <t>Reason for Referral</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>ServiceRequest | Procedure</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>ServiceRequest | Procedure</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>ServiceRequest.reasonCode | ServiceRequest.reasonReference | Procedure.reasonCode | Procedure.reasonReference</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pediatric Weight for Height Observation Profile </t>
+          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Weight-for-length Percentile (Birth - 36 months)</t>
+          <t>SDOH Interventions</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>ServiceRequest | Procedure</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>ServiceRequest | Procedure</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+          <t>ServiceRequest | Procedure</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
+      <c r="A134" t="n">
+        <v>21</v>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Provenance</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>US Core Pediatric Head Occipital Frontal Circumference Percentile Profile</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Occipital Frontal Head Circumference Percentile (Birth - 36 months)</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>US Core Provenance Profile</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>See Basic Provenance Guidance</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>basic-provenance.html</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>US Core Provenance Profile</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Author Time Stamp</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Provenance.recorded</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>US Core Provenance Profile</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Author Organization</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Provenance.agent</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>22</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>US Core Vital Signs Profile</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Average Blood Pressure Profile </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Average Blood Pressure</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Blood Pressure Profile </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Diastolic blood pressure</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Blood Pressure Profile </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Systolic blood pressure</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Body Height Profile </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Body height</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Body Weight Profile </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Body weight</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Heart Rate Profile </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Heart rate</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Respiratory Rate Profile </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Respiratory rate</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Body Temperature Profile </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Body temperature</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Pulse oximetry</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Inhaled oxygen concentration</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Pediatric BMI for Age Observation Profile </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>BMI Percentile (2-20 years old)</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Pediatric Weight for Height Observation Profile </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Weight-for-length Percentile (Birth - 36 months)</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>US Core Pediatric Head Occipital Frontal Circumference Percentile Profile</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Occipital Frontal Head Circumference Percentile (Birth - 36 months)</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/input/images/tables/uscdi-table.xlsx
+++ b/input/images/tables/uscdi-table.xlsx
@@ -454,20 +454,24 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>fhir_extension_url</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>fhir_path</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>comment_link</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr"/>
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr"/>
       <c r="N1" t="inlineStr"/>
@@ -475,6 +479,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr"/>
       <c r="R1" t="inlineStr"/>
+      <c r="S1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -494,12 +499,12 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>AllergyIntolerance</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -509,6 +514,7 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -538,12 +544,12 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>AllergyIntolerance.code</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -553,6 +559,7 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -582,12 +589,12 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>AllergyIntolerance.code</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -597,6 +604,7 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -626,12 +634,12 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>AllergyIntolerance.code</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -641,6 +649,7 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -670,12 +679,12 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>AllergyIntolerance.reaction</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -685,6 +694,7 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -704,12 +714,12 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>CareTeam.participant</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -719,6 +729,7 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -748,12 +759,12 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Practitioner.name | RelatedPerson.name</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -763,6 +774,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -792,12 +804,12 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Practitioner.identifier</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -807,6 +819,7 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -836,12 +849,12 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>PractitionerRole.address | Practitioner.address | RelatedPerson.address</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -851,6 +864,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -880,12 +894,12 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>PractitionerRole.telecom | Practitioner.telecom | RelatedPerson.telecom</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -895,6 +909,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -924,12 +939,12 @@
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>CareTeam.participant.role</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -939,6 +954,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -958,22 +974,22 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>See Clinical Notes Guidance</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>clinical-notes.html</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -981,6 +997,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1010,12 +1027,12 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>DocumentReference</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1025,6 +1042,7 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1054,12 +1072,12 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>DocumentReference</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1069,6 +1087,7 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -1098,12 +1117,12 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>DocumentReference</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1113,6 +1132,7 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1142,12 +1162,12 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1157,6 +1177,7 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1186,12 +1207,12 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1201,6 +1222,7 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1222,12 +1244,12 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>DocumentReference</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1237,6 +1259,7 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1258,12 +1281,12 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
         <is>
           <t>DocumentReference</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1273,6 +1296,7 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1294,12 +1318,12 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>DocumentReference</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1309,6 +1333,7 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1340,12 +1365,12 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1355,6 +1380,7 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1384,12 +1410,12 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1399,6 +1425,7 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1428,12 +1455,12 @@
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -1443,6 +1470,7 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1462,12 +1490,12 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1477,6 +1505,7 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1506,12 +1535,12 @@
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1521,6 +1550,7 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -1550,12 +1580,12 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1565,6 +1595,7 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1584,12 +1615,12 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>Encounter</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1599,6 +1630,7 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1628,12 +1660,12 @@
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Encounter.identifier</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
@@ -1643,6 +1675,7 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -1672,12 +1705,12 @@
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
         <is>
           <t>Encounter.type</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1687,6 +1720,7 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1716,12 +1750,12 @@
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
         <is>
           <t>Condition.code</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -1731,6 +1765,7 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -1760,12 +1795,12 @@
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Encounter.period</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -1775,6 +1810,7 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -1804,12 +1840,12 @@
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
         <is>
           <t>Encounter.location.location</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -1819,6 +1855,7 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -1848,12 +1885,12 @@
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
         <is>
           <t>Encounter.hospitalization.dischargeDisposition</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -1863,6 +1900,7 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1882,22 +1920,22 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>See Facility Information Guidance</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>StructureDefinition-us-core-location.html</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -1905,6 +1943,7 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1934,12 +1973,12 @@
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Location.identifier</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -1949,6 +1988,7 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -1978,12 +2018,12 @@
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
         <is>
           <t>Location.type</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -1993,6 +2033,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -2022,12 +2063,12 @@
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
         <is>
           <t>Location.name</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -2037,6 +2078,7 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2056,12 +2098,12 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
         <is>
           <t>Goal</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
@@ -2071,6 +2113,7 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -2100,12 +2143,12 @@
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Goal</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -2115,6 +2158,7 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -2144,22 +2188,22 @@
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Goal</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -2167,6 +2211,7 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -2196,12 +2241,12 @@
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -2211,6 +2256,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -2240,12 +2286,12 @@
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -2255,6 +2301,7 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2274,12 +2321,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
         <is>
           <t>Coverage | Organization</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -2289,6 +2336,7 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -2318,12 +2366,12 @@
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
         <is>
           <t>Coverage.status+Coverage.period</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
@@ -2333,6 +2381,7 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -2362,12 +2411,12 @@
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
         <is>
           <t>Coverage.type</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
@@ -2377,6 +2426,7 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -2406,12 +2456,12 @@
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
         <is>
           <t>Coverage | relationship</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
@@ -2421,6 +2471,7 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -2450,12 +2501,12 @@
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
         <is>
           <t>Coverage.identifier</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -2465,6 +2516,7 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -2494,12 +2546,12 @@
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Coverage.subscriberId</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -2509,6 +2561,7 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -2538,12 +2591,12 @@
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Coverage.class</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
@@ -2553,6 +2606,7 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -2582,12 +2636,12 @@
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
         <is>
           <t>Coverage.payer | Organization.identifier</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -2597,6 +2651,7 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2616,12 +2671,12 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -2631,6 +2686,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -2660,12 +2716,12 @@
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -2675,6 +2731,7 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -2704,22 +2761,22 @@
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
           <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -2727,6 +2784,7 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -2756,22 +2814,22 @@
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
           <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -2779,6 +2837,7 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -2808,22 +2867,22 @@
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
           <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -2831,6 +2890,7 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -2860,12 +2920,12 @@
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -2875,6 +2935,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -2904,22 +2965,22 @@
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -2927,6 +2988,7 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -2956,22 +3018,22 @@
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
         <is>
           <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -2979,6 +3041,7 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -3008,22 +3071,22 @@
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -3031,6 +3094,7 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -3060,22 +3124,22 @@
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
         <is>
           <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -3083,6 +3147,7 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -3112,12 +3177,12 @@
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
@@ -3127,6 +3192,7 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3146,12 +3212,12 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
         <is>
           <t>Immunization</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
@@ -3161,6 +3227,7 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -3190,12 +3257,12 @@
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
         <is>
           <t>Immunization</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -3205,6 +3272,7 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -3234,12 +3302,12 @@
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
         <is>
           <t>Immunization.lotNumber</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
@@ -3249,6 +3317,7 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3268,12 +3337,12 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport | Specimen</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -3283,6 +3352,7 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -3312,12 +3382,12 @@
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
         <is>
           <t>Observation.code | DiagnosticReport.code</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
@@ -3327,6 +3397,7 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -3356,12 +3427,12 @@
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
         <is>
           <t>Observation.value[x] | DiagnosticReport.result</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
@@ -3371,6 +3442,7 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -3400,12 +3472,12 @@
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
         <is>
           <t>Observation.specimen | Specimen</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
@@ -3415,6 +3487,7 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -3444,12 +3517,12 @@
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
         <is>
           <t>Observation.status | DiagnosticReport.status</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -3459,6 +3532,7 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -3488,12 +3562,12 @@
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
         <is>
           <t>(Observation.value.ofType(Quantity)).code</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -3503,6 +3577,7 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -3532,12 +3607,12 @@
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
         <is>
           <t>Observation.referenceRange</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -3547,6 +3622,7 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -3576,12 +3652,12 @@
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
         <is>
           <t>Observation.interpretation</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -3591,6 +3667,7 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -3620,12 +3697,12 @@
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
         <is>
           <t>Specimen.identifier</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
@@ -3635,6 +3712,7 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -3664,12 +3742,12 @@
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
         <is>
           <t>Specimen.collection.bodySite</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
@@ -3679,6 +3757,7 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -3708,12 +3787,12 @@
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
         <is>
           <t>Specimen.condition</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
@@ -3723,6 +3802,7 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3742,12 +3822,12 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
         <is>
           <t>Device</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -3757,6 +3837,7 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -3786,12 +3867,12 @@
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
         <is>
           <t>Device</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -3801,6 +3882,7 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3820,22 +3902,22 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
         <is>
           <t>MedicationRequest | MedicationDispense | Medication</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>See Medication List Guidance</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>medication-list.html</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
@@ -3843,6 +3925,7 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -3872,12 +3955,12 @@
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
         <is>
           <t>Medication.code | MedicationRequest.medication[x]</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -3887,6 +3970,7 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -3916,12 +4000,12 @@
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
         <is>
           <t>MedicationRequest.dosageInstruction.doseAndRate</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -3931,6 +4015,7 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -3960,12 +4045,12 @@
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr">
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
         <is>
           <t>MedicationRequest.dosageInstruction.doseAndRate</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
@@ -3975,6 +4060,7 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -4004,12 +4090,12 @@
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr">
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
         <is>
           <t>MedicationRequest.dosageInstruction.route | MedicationDispense.dosageInstruction.route</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
@@ -4019,6 +4105,7 @@
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -4048,12 +4135,12 @@
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
         <is>
           <t>MedicationRequest.reasonCode | Medication.reasonReference</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
@@ -4063,6 +4150,7 @@
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -4092,12 +4180,12 @@
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
         <is>
           <t>MedicationRequest.dosageInstruction</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
@@ -4107,6 +4195,7 @@
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -4117,7 +4206,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
+          <t>US Core MedicationRequest Profile | US Core Medication Adherence Extension</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4140,12 +4229,12 @@
           <t>US Core Medication Adherence Extension</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
         <is>
           <t>MedicationRequest.extension.where(url='Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication-adherence')</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
@@ -4155,6 +4244,7 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -4184,12 +4274,12 @@
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
         <is>
           <t>MedicationDispense</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -4199,6 +4289,7 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4229,6 +4320,7 @@
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -4258,12 +4350,12 @@
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
         <is>
           <t>Observation | DocumentReference</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
@@ -4273,6 +4365,7 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -4283,7 +4376,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Patient Profile | Patient Sex Parameter for Clinical Use Extension</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4308,10 +4401,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
+          <t>StructureDefinition-patient-sexParameterForClinicalUse.html</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>Patient.extension.where(url='http://hl7.org/fhir/StructureDefinition/patient-sexParameterForClinicalUse')</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
@@ -4321,6 +4418,7 @@
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4340,12 +4438,12 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
         <is>
           <t>MedicationRequest | ServiceRequest</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
@@ -4355,6 +4453,7 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -4384,12 +4483,12 @@
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
         <is>
           <t>MedicationRequest</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
@@ -4399,6 +4498,7 @@
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -4428,12 +4528,12 @@
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
         <is>
           <t>ServiceRequest</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
@@ -4443,6 +4543,7 @@
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -4472,12 +4573,12 @@
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
         <is>
           <t>ServiceRequest</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
@@ -4487,6 +4588,7 @@
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -4516,12 +4618,12 @@
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
         <is>
           <t>ServiceRequest</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
@@ -4531,6 +4633,7 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -4560,12 +4663,12 @@
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
         <is>
           <t>ServiceRequest</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
@@ -4575,6 +4678,7 @@
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4594,12 +4698,12 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
         <is>
           <t>Patient | Observation</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
@@ -4609,6 +4713,7 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -4638,12 +4743,12 @@
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr">
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
         <is>
           <t>Patient.name.given</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
@@ -4653,6 +4758,7 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -4682,12 +4788,12 @@
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
         <is>
           <t>Patient.name.family</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -4697,6 +4803,7 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -4726,12 +4833,12 @@
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
         <is>
           <t>Patient.name</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
@@ -4741,6 +4848,7 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -4770,12 +4878,12 @@
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
         <is>
           <t>Patient.name.given</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
@@ -4785,6 +4893,7 @@
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -4814,12 +4923,12 @@
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
         <is>
           <t>Patient.name.suffix</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
@@ -4829,6 +4938,7 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -4858,12 +4968,12 @@
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
         <is>
           <t>Patient.name.use</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
@@ -4873,6 +4983,7 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -4883,7 +4994,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Patient Profile | Individual Pronouns Extension</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4908,10 +5019,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
+          <t>StructureDefinition-individual-pronouns.html</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
           <t>Patient.extension.where(url='http://hl7.org/fhir/StructureDefinition/individual-pronouns')</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
@@ -4921,6 +5036,7 @@
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -4954,12 +5070,12 @@
           <t>US Core Sex Extension</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
         <is>
           <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-sex')</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
@@ -4969,6 +5085,7 @@
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -4998,12 +5115,12 @@
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr">
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
         <is>
           <t>Patient.birthDate</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
@@ -5013,6 +5130,7 @@
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -5042,12 +5160,12 @@
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr">
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
         <is>
           <t>Patient.deceased[x]</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
@@ -5057,6 +5175,7 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -5067,35 +5186,35 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>US Core Patient Profile | US Core Race Extension</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>US Core Race Extension</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Race</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>US Core Race Extension</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
         <is>
           <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
@@ -5105,6 +5224,7 @@
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -5138,12 +5258,12 @@
           <t>US Core Ethnicity Extension</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
         <is>
           <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
@@ -5153,6 +5273,7 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -5186,12 +5307,12 @@
           <t>US Core Tibal Affiliation Extension</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
         <is>
           <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-tribal-affiliation')</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
@@ -5201,6 +5322,7 @@
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -5234,12 +5356,12 @@
           <t>Gender Identity Extension</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
         <is>
           <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity')</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
@@ -5249,6 +5371,7 @@
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -5278,12 +5401,12 @@
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
@@ -5293,6 +5416,7 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -5322,12 +5446,12 @@
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
         <is>
           <t>Patient.communication</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
@@ -5337,6 +5461,7 @@
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -5347,7 +5472,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Encounter Profile</t>
+          <t>US Core Patient Profile | US Core Encounter Profile |US Core Interpreter Needed Extension</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5367,15 +5492,15 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>US Core Interpreter Required Extension</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-required'') | Encounter.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-required'') </t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr"/>
+          <t>US Core Interpreter Needed Extension</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') | Encounter.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') </t>
+        </is>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
@@ -5385,6 +5510,7 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -5414,12 +5540,12 @@
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
         <is>
           <t>Patient.address</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
@@ -5429,6 +5555,7 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -5458,12 +5585,12 @@
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
         <is>
           <t>Patient.address</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
@@ -5473,6 +5600,7 @@
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -5502,12 +5630,12 @@
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr">
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
         <is>
           <t>Patient.telecom</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
@@ -5517,6 +5645,7 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -5546,12 +5675,12 @@
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr">
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
         <is>
           <t>Patient.telecom</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
@@ -5561,6 +5690,7 @@
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -5590,12 +5720,12 @@
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr">
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
         <is>
           <t>RelatedPerson.name</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
@@ -5605,6 +5735,7 @@
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -5634,12 +5765,12 @@
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr">
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
         <is>
           <t>RelatedPerson.relationship</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
@@ -5649,6 +5780,7 @@
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -5678,12 +5810,12 @@
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
@@ -5693,6 +5825,7 @@
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -5722,12 +5855,12 @@
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
@@ -5737,6 +5870,7 @@
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5756,12 +5890,12 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
         <is>
           <t>CarePlan</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
@@ -5771,6 +5905,7 @@
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -5800,12 +5935,12 @@
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr">
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
         <is>
           <t>CarePlan</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
@@ -5815,6 +5950,7 @@
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5842,12 +5978,12 @@
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
@@ -5857,6 +5993,7 @@
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -5867,7 +6004,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile |assertedDate Extension</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5886,12 +6023,12 @@
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr">
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
         <is>
           <t>Condition.abatement[x]</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
@@ -5901,6 +6038,7 @@
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -5911,7 +6049,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile |assertedDate Extension</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5936,10 +6074,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
+          <t>StructureDefinition-condition-assertedDate.html</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
           <t>Condition.extension.where(url='http://hl7.org/fhir/StructureDefinition/condition-assertedDate') | Condition.onset[x] | Condition.onsetDate</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
@@ -5949,6 +6091,7 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -5978,22 +6121,22 @@
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
@@ -6001,6 +6144,7 @@
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6020,12 +6164,12 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr">
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
         <is>
           <t>Procedure | ServiceRequest</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
@@ -6035,6 +6179,7 @@
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -6064,12 +6209,12 @@
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr">
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
         <is>
           <t>Procedure</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
@@ -6079,6 +6224,7 @@
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -6108,12 +6254,12 @@
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
         <is>
           <t>Procedure.pertormed[x] | DiagnosticReport.effective[x] | Immunization.occurrence[x]</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
@@ -6123,6 +6269,7 @@
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -6152,12 +6299,12 @@
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
         <is>
           <t>ServiceRequest.reasonCode | ServiceRequest.reasonReference | Procedure.reasonCode | Procedure.reasonReference</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
@@ -6167,6 +6314,7 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -6196,22 +6344,22 @@
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
         <is>
           <t>ServiceRequest | Procedure</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
@@ -6219,6 +6367,7 @@
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6238,22 +6387,22 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr">
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
         <is>
           <t>Provenance</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>See Basic Provenance Guidance</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>basic-provenance.html</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
@@ -6261,6 +6410,7 @@
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -6290,12 +6440,12 @@
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr">
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
         <is>
           <t>Provenance.recorded</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
@@ -6305,6 +6455,7 @@
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -6334,12 +6485,12 @@
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr">
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
         <is>
           <t>Provenance.agent</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
@@ -6349,6 +6500,7 @@
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6368,12 +6520,12 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
@@ -6383,6 +6535,7 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -6412,12 +6565,12 @@
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
@@ -6426,7 +6579,8 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="n">
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6458,12 +6612,12 @@
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
@@ -6473,6 +6627,7 @@
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -6502,12 +6657,12 @@
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
@@ -6517,6 +6672,7 @@
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -6546,12 +6702,12 @@
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
@@ -6561,6 +6717,7 @@
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -6590,12 +6747,12 @@
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
@@ -6605,6 +6762,7 @@
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -6634,12 +6792,12 @@
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
@@ -6649,6 +6807,7 @@
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -6678,12 +6837,12 @@
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
@@ -6693,6 +6852,7 @@
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -6722,12 +6882,12 @@
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
@@ -6737,6 +6897,7 @@
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -6766,12 +6927,12 @@
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
@@ -6781,6 +6942,7 @@
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -6810,12 +6972,12 @@
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
@@ -6825,6 +6987,7 @@
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -6854,12 +7017,12 @@
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
@@ -6869,6 +7032,7 @@
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -6898,12 +7062,12 @@
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
@@ -6913,6 +7077,7 @@
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -6942,12 +7107,12 @@
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
@@ -6957,6 +7122,7 @@
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/input/images/tables/uscdi-table.xlsx
+++ b/input/images/tables/uscdi-table.xlsx
@@ -446,32 +446,32 @@
           <t>resource_type</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr"/>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>extension</t>
+        </is>
+      </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>extension</t>
+          <t>fhir_extension_url</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>fhir_extension_url</t>
+          <t>fhir_path</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>fhir_path</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>comment</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
           <t>comment_link</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr"/>
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr"/>
       <c r="N1" t="inlineStr"/>
@@ -479,7 +479,6 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr"/>
       <c r="R1" t="inlineStr"/>
-      <c r="S1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -499,12 +498,12 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>AllergyIntolerance</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -514,7 +513,6 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -538,18 +536,14 @@
           <t>AllergyIntolerance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>AllergyIntolerance</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>AllergyIntolerance.code</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -559,7 +553,6 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -583,18 +576,14 @@
           <t>AllergyIntolerance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>AllergyIntolerance</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>AllergyIntolerance.code</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -604,7 +593,6 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -628,18 +616,14 @@
           <t>AllergyIntolerance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>AllergyIntolerance</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>AllergyIntolerance.code</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -649,7 +633,6 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -673,18 +656,14 @@
           <t>AllergyIntolerance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>AllergyIntolerance</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>AllergyIntolerance.reaction</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -694,7 +673,6 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -714,12 +692,12 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>CareTeam.participant</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -729,7 +707,6 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -753,18 +730,14 @@
           <t>CareTeam</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CareTeam</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Practitioner.name | RelatedPerson.name</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -774,7 +747,6 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -798,18 +770,14 @@
           <t>CareTeam</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CareTeam</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Practitioner.identifier</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -819,7 +787,6 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -843,18 +810,14 @@
           <t>CareTeam</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CareTeam</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>PractitionerRole.address | Practitioner.address | RelatedPerson.address</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -864,7 +827,6 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -888,18 +850,14 @@
           <t>CareTeam</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>CareTeam</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>PractitionerRole.telecom | Practitioner.telecom | RelatedPerson.telecom</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -909,7 +867,6 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -933,18 +890,14 @@
           <t>CareTeam</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>CareTeam</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>CareTeam.participant.role</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -954,7 +907,6 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -974,22 +926,22 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>DocumentReference | DiagnosticReport</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>DocumentReference | DiagnosticReport</t>
+          <t>See Clinical Notes Guidance</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>See Clinical Notes Guidance</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
           <t>clinical-notes.html</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -997,7 +949,6 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1021,18 +972,14 @@
           <t>DocumentReference</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>DocumentReference</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>DocumentReference</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1042,7 +989,6 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1066,18 +1012,14 @@
           <t>DocumentReference</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>DocumentReference</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>DocumentReference</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1087,7 +1029,6 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -1111,18 +1052,14 @@
           <t>DocumentReference</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>DocumentReference</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>DocumentReference</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1132,7 +1069,6 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1156,18 +1092,14 @@
           <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>DocumentReference | DiagnosticReport</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1177,7 +1109,6 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1201,18 +1132,14 @@
           <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>DocumentReference | DiagnosticReport</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1222,7 +1149,6 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1244,12 +1170,12 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>DocumentReference</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1259,7 +1185,6 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1281,12 +1206,12 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>DocumentReference</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1296,7 +1221,6 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1318,12 +1242,12 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>DocumentReference</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1333,7 +1257,6 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1359,18 +1282,14 @@
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1380,7 +1299,6 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1404,18 +1322,14 @@
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1425,7 +1339,6 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1449,18 +1362,14 @@
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -1470,7 +1379,6 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1490,12 +1398,12 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1505,7 +1413,6 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1529,18 +1436,14 @@
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1550,7 +1453,6 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -1574,18 +1476,14 @@
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1595,7 +1493,6 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1615,12 +1512,12 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Encounter</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1630,7 +1527,6 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1654,18 +1550,14 @@
           <t>Encounter</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Encounter</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Encounter.identifier</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
@@ -1675,7 +1567,6 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -1699,18 +1590,14 @@
           <t>Encounter</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Encounter</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Encounter.type</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1720,7 +1607,6 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1744,18 +1630,14 @@
           <t>Condition</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Condition.code</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -1765,7 +1647,6 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -1789,18 +1670,14 @@
           <t>Encounter</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Encounter</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Encounter.period</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -1810,7 +1687,6 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -1834,18 +1710,14 @@
           <t>Encounter</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Encounter</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Encounter.location.location</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -1855,7 +1727,6 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -1879,18 +1750,14 @@
           <t>Encounter</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Encounter</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Encounter.hospitalization.dischargeDisposition</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -1900,7 +1767,6 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1920,22 +1786,22 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>See Facility Information Guidance</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>See Facility Information Guidance</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
           <t>StructureDefinition-us-core-location.html</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -1943,7 +1809,6 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1967,18 +1832,14 @@
           <t>Location</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Location.identifier</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -1988,7 +1849,6 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -2012,18 +1872,14 @@
           <t>Location</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Location.type</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -2033,7 +1889,6 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -2057,18 +1912,14 @@
           <t>Location</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Location.name</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -2078,7 +1929,6 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2098,12 +1948,12 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Goal</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
@@ -2113,7 +1963,6 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -2137,18 +1986,14 @@
           <t>Goal</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
         <is>
           <t>Goal</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Goal</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -2158,7 +2003,6 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -2182,28 +2026,24 @@
           <t>Goal</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t>Goal</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -2211,7 +2051,6 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -2235,18 +2074,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -2256,7 +2091,6 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -2280,18 +2114,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -2301,7 +2131,6 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2321,12 +2150,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Coverage | Organization</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -2336,7 +2165,6 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -2360,18 +2188,14 @@
           <t>Coverage</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Coverage</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Coverage.status+Coverage.period</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
@@ -2381,7 +2205,6 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -2405,18 +2228,14 @@
           <t>Coverage</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Coverage</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Coverage.type</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
@@ -2426,7 +2245,6 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -2450,18 +2268,14 @@
           <t>Coverage</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Coverage</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Coverage | relationship</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
@@ -2471,7 +2285,6 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -2495,18 +2308,14 @@
           <t>Coverage</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Coverage</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Coverage.identifier</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -2516,7 +2325,6 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -2540,18 +2348,14 @@
           <t>Coverage</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Coverage</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Coverage.subscriberId</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -2561,7 +2365,6 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -2585,18 +2388,14 @@
           <t>Coverage</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Coverage</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Coverage.class</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
@@ -2606,7 +2405,6 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -2630,18 +2428,14 @@
           <t>Coverage | Organization</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Coverage | Organization</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Coverage.payer | Organization.identifier</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -2651,7 +2445,6 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2671,12 +2464,12 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -2686,7 +2479,6 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -2710,18 +2502,14 @@
           <t>Condition</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -2731,7 +2519,6 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -2755,28 +2542,24 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -2784,7 +2567,6 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -2808,28 +2590,24 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -2837,7 +2615,6 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -2861,28 +2638,24 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -2890,7 +2663,6 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -2914,18 +2686,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -2935,7 +2703,6 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -2959,28 +2726,24 @@
           <t>Simple | Condition | QuestionnaireResponse</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
+          <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -2988,7 +2751,6 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -3012,28 +2774,24 @@
           <t>Simple | Condition | QuestionnaireResponse</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
+          <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -3041,7 +2799,6 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -3065,28 +2822,24 @@
           <t>Simple | Condition | QuestionnaireResponse</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
+          <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -3094,7 +2847,6 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -3118,28 +2870,24 @@
           <t>Simple | Condition | QuestionnaireResponse</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
+          <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -3147,7 +2895,6 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -3171,18 +2918,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
@@ -3192,7 +2935,6 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3212,12 +2954,12 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Immunization</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
@@ -3227,7 +2969,6 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -3251,18 +2992,14 @@
           <t>Immunization</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t>Immunization</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Immunization</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -3272,7 +3009,6 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -3296,18 +3032,14 @@
           <t>Immunization</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Immunization</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Immunization.lotNumber</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
@@ -3317,7 +3049,6 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3337,12 +3068,12 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Observation | DiagnosticReport | Specimen</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -3352,7 +3083,6 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -3376,18 +3106,14 @@
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Observation.code | DiagnosticReport.code</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
@@ -3397,7 +3123,6 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -3421,18 +3146,14 @@
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Observation.value[x] | DiagnosticReport.result</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
@@ -3442,7 +3163,6 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -3466,18 +3186,14 @@
           <t>Observation | Specimen</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Observation | Specimen</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Observation.specimen | Specimen</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
@@ -3487,7 +3203,6 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -3511,18 +3226,14 @@
           <t>Observation | DiagnosticReport</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Observation.status | DiagnosticReport.status</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -3532,7 +3243,6 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -3556,18 +3266,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>(Observation.value.ofType(Quantity)).code</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -3577,7 +3283,6 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -3601,18 +3306,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Observation.referenceRange</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -3622,7 +3323,6 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -3646,18 +3346,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Observation.interpretation</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -3667,7 +3363,6 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -3691,18 +3386,14 @@
           <t>Specimen</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Specimen</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Specimen.identifier</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
@@ -3712,7 +3403,6 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -3736,18 +3426,14 @@
           <t>Specimen</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Specimen</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Specimen.collection.bodySite</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
@@ -3757,7 +3443,6 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -3781,18 +3466,14 @@
           <t>Specimen</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Specimen</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Specimen.condition</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
@@ -3802,7 +3483,6 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3822,12 +3502,12 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Device</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -3837,7 +3517,6 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -3861,18 +3540,14 @@
           <t>Device</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
         <is>
           <t>Device</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Device</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -3882,7 +3557,6 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3902,22 +3576,22 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>MedicationRequest | MedicationDispense | Medication</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>MedicationRequest | MedicationDispense | Medication</t>
+          <t>See Medication List Guidance</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>See Medication List Guidance</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
           <t>medication-list.html</t>
         </is>
       </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
@@ -3925,7 +3599,6 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -3949,18 +3622,14 @@
           <t>Medication | MedicationRequest</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Medication | MedicationRequest</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Medication.code | MedicationRequest.medication[x]</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -3970,7 +3639,6 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -3994,18 +3662,14 @@
           <t>MedicationRequest</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>MedicationRequest.dosageInstruction.doseAndRate</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -4015,7 +3679,6 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -4039,18 +3702,14 @@
           <t>MedicationRequest</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>MedicationRequest.dosageInstruction.doseAndRate</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
@@ -4060,7 +3719,6 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -4084,18 +3742,14 @@
           <t>MedicationRequest | MedicationDispense</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>MedicationRequest | MedicationDispense</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>MedicationRequest.dosageInstruction.route | MedicationDispense.dosageInstruction.route</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
@@ -4105,7 +3759,6 @@
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -4129,18 +3782,14 @@
           <t>MedicationRequest</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>MedicationRequest.reasonCode | Medication.reasonReference</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
@@ -4150,7 +3799,6 @@
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -4174,18 +3822,14 @@
           <t>MedicationRequest</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>MedicationRequest.dosageInstruction</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
@@ -4195,7 +3839,6 @@
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -4221,20 +3864,16 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
           <t>US Core Medication Adherence Extension</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
         <is>
           <t>MedicationRequest.extension.where(url='Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication-adherence')</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
@@ -4244,7 +3883,6 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -4268,18 +3906,14 @@
           <t>MedicationDispense</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
         <is>
           <t>MedicationDispense</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>MedicationDispense</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -4289,7 +3923,6 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4302,7 +3935,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> US Core Observation ADI Documentation Profile| US Core ADI DocumentReference Profile | US Core Patient Profile</t>
+          <t xml:space="preserve"> US Core Observation ADI Documentation Profile| US Core ADI DocumentReference Profile</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -4320,7 +3953,6 @@
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -4344,18 +3976,14 @@
           <t>Observation | DocumentReference</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
         <is>
           <t>Observation | DocumentReference</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Observation | DocumentReference</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
@@ -4365,50 +3993,31 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
+      <c r="A90" t="n">
+        <v>16</v>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | Patient Sex Parameter for Clinical Use Extension</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Sex Parameter for Clinical Use</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Patient Sex Parameter for Clinical Use Extension</t>
-        </is>
-      </c>
+          <t>US Core MedicationRequest Profile | US Core ServiceRequest Profile</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>StructureDefinition-patient-sexParameterForClinicalUse.html</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/StructureDefinition/patient-sexParameterForClinicalUse')</t>
-        </is>
-      </c>
+          <t>MedicationRequest | ServiceRequest</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
@@ -4418,12 +4027,9 @@
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>16</v>
-      </c>
+      <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
           <t>Orders</t>
@@ -4431,19 +4037,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile | US Core ServiceRequest Profile</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+          <t>US Core MedicationRequest Profile</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Medication Order</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MedicationRequest</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>MedicationRequest | ServiceRequest</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>MedicationRequest</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
@@ -4453,7 +4067,6 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -4464,31 +4077,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Medication Order</t>
+          <t>Laboratory Order</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
+          <t>ServiceRequest</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>ServiceRequest</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
@@ -4498,7 +4107,6 @@
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -4514,7 +4122,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Laboratory Order</t>
+          <t>Diagnostic Imaging Order</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4522,18 +4130,14 @@
           <t>ServiceRequest</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
         <is>
           <t>ServiceRequest</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
@@ -4543,7 +4147,6 @@
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -4559,7 +4162,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging Order</t>
+          <t>Clinical Test Order</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4567,18 +4170,14 @@
           <t>ServiceRequest</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
         <is>
           <t>ServiceRequest</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
@@ -4588,7 +4187,6 @@
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -4604,7 +4202,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Clinical Test Order</t>
+          <t>Procedure Order</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4612,18 +4210,14 @@
           <t>ServiceRequest</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
         <is>
           <t>ServiceRequest</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
@@ -4633,42 +4227,31 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr"/>
+      <c r="A96" t="n">
+        <v>17</v>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Orders</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Procedure Order</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
+          <t>US Core Patient Profile | US Core RelatedPerson Profile | US Core Observation Occupation Profile</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Patient | Observation</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
@@ -4678,12 +4261,9 @@
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>17</v>
-      </c>
+      <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
           <t>Patient Demographics</t>
@@ -4691,19 +4271,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Observation Sexual Orientation Profile | US Core Observation Sexual Orientation Profile | US Core Observation Sexual Orientation Profile |US Core Observation Occupation Profile</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Patient | Observation</t>
-        </is>
-      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Patient.name.given</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
@@ -4713,7 +4301,6 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -4729,7 +4316,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4737,18 +4324,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Patient.name.given</t>
-        </is>
-      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Patient.name.family</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
@@ -4758,7 +4341,6 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -4774,7 +4356,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Previous Name</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4782,18 +4364,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Patient.name.family</t>
-        </is>
-      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Patient.name.use</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -4803,7 +4381,6 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -4819,7 +4396,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Previous Name</t>
+          <t>Middle Name (including middle initial)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4827,18 +4404,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Patient.name</t>
-        </is>
-      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Patient.name.given</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
@@ -4848,7 +4421,6 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -4864,7 +4436,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Middle Name (including middle initial)</t>
+          <t>Suffix</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4872,18 +4444,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Patient.name.given</t>
-        </is>
-      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Patient.name.suffix</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
@@ -4893,7 +4461,6 @@
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -4904,12 +4471,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Patient Profile | US Core Sex Extension</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Suffix</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4919,16 +4486,16 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>US Core Sex Extension</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Patient.name.suffix</t>
-        </is>
-      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-sex')</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
@@ -4938,7 +4505,6 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -4954,7 +4520,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Name to Use</t>
+          <t>Date of Birth</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4962,18 +4528,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Patient.name.use</t>
-        </is>
-      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Patient.birthDate</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
@@ -4983,7 +4545,6 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -4994,12 +4555,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | Individual Pronouns Extension</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Pronouns</t>
+          <t>Date of Death</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5007,26 +4568,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Individual Pronouns Extension</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>StructureDefinition-individual-pronouns.html</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/StructureDefinition/individual-pronouns')</t>
-        </is>
-      </c>
+          <t>Patient.deceased[x]</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
@@ -5036,7 +4585,6 @@
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -5047,12 +4595,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Sex Extension</t>
+          <t>US Core Patient Profile | US Core Race Extension</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5062,20 +4610,16 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>US Core Sex Extension</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-sex')</t>
-        </is>
-      </c>
+          <t>US Core Race Extension</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
@@ -5085,7 +4629,6 @@
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -5096,12 +4639,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Patient Profile | US Core Ethnicity Extension</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Date of Birth</t>
+          <t>Ethnicity</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5111,16 +4654,16 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>US Core Ethnicity Extension</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Patient.birthDate</t>
-        </is>
-      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
@@ -5130,7 +4673,6 @@
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -5141,12 +4683,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Patient Profile | US Core Tribal Affiliation Extension</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Date of Death</t>
+          <t>Tribal Affiliation</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5156,16 +4698,16 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>US Core Tibal Affiliation Extension</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Patient.deceased[x]</t>
-        </is>
-      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-tribal-affiliation')</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
@@ -5175,7 +4717,6 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -5186,12 +4727,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Race Extension</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Preferred Language</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5199,22 +4740,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>US Core Race Extension</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Patient.communication</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
@@ -5224,7 +4757,6 @@
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -5235,35 +4767,31 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Ethnicity Extension</t>
+          <t>US Core Patient Profile | US Core Encounter Profile |US Core Interpreter Needed Extension</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Ethnicity</t>
+          <t>Interpreter Needed</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>Patient | Encounter</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>US Core Ethnicity Extension</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')</t>
-        </is>
-      </c>
+          <t>US Core Interpreter Needed Extension</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') | Encounter.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') </t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
@@ -5273,7 +4801,6 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -5284,12 +4811,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Tribal Affiliation Extension</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Tribal Affiliation</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5297,22 +4824,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>US Core Tibal Affiliation Extension</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-tribal-affiliation')</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Patient.address</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
@@ -5322,7 +4841,6 @@
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -5333,12 +4851,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Gender Identity Extension</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Gender Identity</t>
+          <t>Previous Address</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5346,22 +4864,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Gender Identity Extension</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-genderIdentity')</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Patient.address</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
@@ -5371,7 +4881,6 @@
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -5382,31 +4891,27 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US Core Observation Sexual Orientation Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Sexual Orientation</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Patient.telecom</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
@@ -5416,7 +4921,6 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -5432,7 +4936,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Preferred Language</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5440,18 +4944,14 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Patient.communication</t>
-        </is>
-      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Patient.telecom</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
@@ -5461,7 +4961,6 @@
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -5472,35 +4971,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Encounter Profile |US Core Interpreter Needed Extension</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interpreter Needed</t>
+          <t>Related Person's Name</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Patient | Encounter</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Patient | Encounter</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>US Core Interpreter Needed Extension</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') | Encounter.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') </t>
-        </is>
-      </c>
+          <t>RelatedPerson</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>RelatedPerson.name</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
@@ -5510,7 +5001,6 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -5521,31 +5011,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Related Person's Relationship</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
+          <t>RelatedPerson</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Patient.address</t>
-        </is>
-      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>RelatedPerson.relationship</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
@@ -5555,7 +5041,6 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -5566,31 +5051,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Observation Occupation Profile</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Previous Address</t>
+          <t>Occupation</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Patient.address</t>
-        </is>
-      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
@@ -5600,7 +5081,6 @@
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -5611,31 +5091,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Observation Occupation Profile</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Occupation Industry</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>Patient.telecom</t>
-        </is>
-      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
@@ -5645,42 +5121,31 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr"/>
+      <c r="A118" t="n">
+        <v>18</v>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Patient Summary and Plan</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Phone Number</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
+          <t>US Core CarePlan Profile</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Patient.telecom</t>
-        </is>
-      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>CarePlan</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
@@ -5690,42 +5155,37 @@
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Patient Summary and Plan</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core CarePlan Profile</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Related Person's Name</t>
+          <t>Assessment and Plan of Treatment</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>RelatedPerson</t>
-        </is>
-      </c>
+          <t>CarePlan</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>RelatedPerson.name</t>
-        </is>
-      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>CarePlan</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
@@ -5735,42 +5195,35 @@
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr"/>
+      <c r="A120" t="n">
+        <v>19</v>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Related Person's Relationship</t>
-        </is>
-      </c>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>RelatedPerson</t>
-        </is>
-      </c>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>RelatedPerson.relationship</t>
-        </is>
-      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
@@ -5780,42 +5233,37 @@
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>US Core Observation Occupation Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile |assertedDate Extension</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Occupation</t>
+          <t>Date of Resolution</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Condition.abatement[x]</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
@@ -5825,42 +5273,45 @@
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>US Core Observation Occupation Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile |assertedDate Extension</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Occupation Industry</t>
+          <t>Date of Diagnosis</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>assertedDate Extension</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>StructureDefinition-condition-assertedDate.html</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Condition.extension.where(url='http://hl7.org/fhir/StructureDefinition/condition-assertedDate') | Condition.onset[x] | Condition.onsetDate</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
@@ -5870,33 +5321,46 @@
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>18</v>
-      </c>
+      <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Patient Summary and Plan</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>US Core CarePlan Profile</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SDOH Problems/Health Concerns</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Condition</t>
+        </is>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Condition</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>CarePlan</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr"/>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
@@ -5905,42 +5369,31 @@
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr"/>
+      <c r="A124" t="n">
+        <v>20</v>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Patient Summary and Plan</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>US Core CarePlan Profile</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Assessment and Plan of Treatment</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>CarePlan</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>CarePlan</t>
-        </is>
-      </c>
+          <t>US Core Procedure Profile | US Core ServiceRequest Profile</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>CarePlan</t>
-        </is>
-      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Procedure | ServiceRequest</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
@@ -5950,40 +5403,37 @@
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>19</v>
-      </c>
+      <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>US Core Procedure Profile</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
@@ -5993,42 +5443,37 @@
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile |assertedDate Extension</t>
+          <t>US Core Procedure Profile|US Core DiagnosticReport Profile for Report and Note Exchange|US Core Immunization Profile</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Date of Resolution</t>
+          <t>Performance Time</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
+          <t>Procedure | DiagnosticRepor | Immunization</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>Condition.abatement[x]</t>
-        </is>
-      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Procedure.pertormed[x] | DiagnosticReport.effective[x] | Immunization.occurrence[x]</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
@@ -6038,50 +5483,37 @@
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile |assertedDate Extension</t>
+          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Date of Diagnosis</t>
+          <t>Reason for Referral</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>assertedDate Extension</t>
-        </is>
-      </c>
+          <t>ServiceRequest | Procedure</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>StructureDefinition-condition-assertedDate.html</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>Condition.extension.where(url='http://hl7.org/fhir/StructureDefinition/condition-assertedDate') | Condition.onset[x] | Condition.onsetDate</t>
-        </is>
-      </c>
+          <t>ServiceRequest.reasonCode | ServiceRequest.reasonReference | Procedure.reasonCode | Procedure.reasonReference</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
@@ -6091,52 +5523,47 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SDOH Problems/Health Concerns</t>
+          <t>SDOH Interventions</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
+          <t>ServiceRequest | Procedure</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>ServiceRequest | Procedure</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>See Screening and Assessments Guidance</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
           <t>screening-and-assessments.html</t>
         </is>
       </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
@@ -6144,33 +5571,36 @@
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Procedures</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>US Core Procedure Profile | US Core ServiceRequest Profile</t>
-        </is>
-      </c>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Provenance</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Procedure | ServiceRequest</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr"/>
+          <t>See Basic Provenance Guidance</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>basic-provenance.html</t>
+        </is>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
@@ -6179,42 +5609,29 @@
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Procedures</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>US Core Procedure Profile</t>
-        </is>
-      </c>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Procedure</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Procedure</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Procedure</t>
-        </is>
-      </c>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>Procedure</t>
-        </is>
-      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Provenance.recorded</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
@@ -6224,42 +5641,29 @@
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Procedures</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>US Core Procedure Profile|US Core DiagnosticReport Profile for Report and Note Exchange|US Core Immunization Profile</t>
-        </is>
-      </c>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Performance Time</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Procedure | DiagnosticRepor | Immunization</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Procedure | DiagnosticRepor | Immunization</t>
-        </is>
-      </c>
+          <t>Author Role</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>Procedure.pertormed[x] | DiagnosticReport.effective[x] | Immunization.occurrence[x]</t>
-        </is>
-      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Provenance.agent</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
@@ -6269,42 +5673,29 @@
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Procedures</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
-        </is>
-      </c>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Reason for Referral</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>ServiceRequest | Procedure</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>ServiceRequest | Procedure</t>
-        </is>
-      </c>
+          <t>Author Time Stamp</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>ServiceRequest.reasonCode | ServiceRequest.reasonReference | Procedure.reasonCode | Procedure.reasonReference</t>
-        </is>
-      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Provenance.recorded</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
@@ -6314,52 +5705,31 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Procedures</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
-        </is>
-      </c>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SDOH Interventions</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>ServiceRequest | Procedure</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>ServiceRequest | Procedure</t>
-        </is>
-      </c>
+          <t>Author Organization</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>ServiceRequest | Procedure</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Provenance.agent</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
@@ -6367,42 +5737,33 @@
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Vital Signs</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t>US Core Vital Signs Profile</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>Provenance</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>See Basic Provenance Guidance</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>basic-provenance.html</t>
-        </is>
-      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
@@ -6410,42 +5771,37 @@
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Vital Signs</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t xml:space="preserve">US Core Average Blood Pressure Profile </t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Author Time Stamp</t>
+          <t>Average Blood Pressure</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Provenance</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Provenance</t>
-        </is>
-      </c>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>Provenance.recorded</t>
-        </is>
-      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
@@ -6454,43 +5810,40 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
+      <c r="R135" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Vital Signs</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t xml:space="preserve">US Core Blood Pressure Profile </t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Author Organization</t>
+          <t>Diastolic blood pressure</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Provenance</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Provenance</t>
-        </is>
-      </c>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>Provenance.agent</t>
-        </is>
-      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
@@ -6500,12 +5853,9 @@
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>22</v>
-      </c>
+      <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
           <t>Vital Signs</t>
@@ -6513,19 +5863,27 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>US Core Vital Signs Profile</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
+          <t xml:space="preserve">US Core Blood Pressure Profile </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Systolic blood pressure</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
@@ -6535,7 +5893,6 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -6546,12 +5903,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Average Blood Pressure Profile </t>
+          <t xml:space="preserve">US Core Body Height Profile </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Average Blood Pressure</t>
+          <t>Body height</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6559,18 +5916,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
@@ -6580,9 +5933,6 @@
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -6593,12 +5943,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Blood Pressure Profile </t>
+          <t xml:space="preserve">US Core Body Weight Profile </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Diastolic blood pressure</t>
+          <t>Body weight</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6606,18 +5956,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
@@ -6627,7 +5973,6 @@
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -6638,12 +5983,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Blood Pressure Profile </t>
+          <t xml:space="preserve">US Core Heart Rate Profile </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Systolic blood pressure</t>
+          <t>Heart rate</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6651,18 +5996,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
@@ -6672,7 +6013,6 @@
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -6683,12 +6023,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Height Profile </t>
+          <t xml:space="preserve">US Core Respiratory Rate Profile </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Body height</t>
+          <t>Respiratory rate</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6696,18 +6036,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
@@ -6717,7 +6053,6 @@
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -6728,12 +6063,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Weight Profile </t>
+          <t xml:space="preserve">US Core Body Temperature Profile </t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Body weight</t>
+          <t>Body temperature</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6741,18 +6076,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
@@ -6762,7 +6093,6 @@
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -6773,12 +6103,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Heart Rate Profile </t>
+          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Heart rate</t>
+          <t>Pulse oximetry</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6786,18 +6116,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
@@ -6807,7 +6133,6 @@
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -6818,12 +6143,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Respiratory Rate Profile </t>
+          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Respiratory rate</t>
+          <t>Inhaled oxygen concentration</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6831,18 +6156,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
@@ -6852,7 +6173,6 @@
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -6863,12 +6183,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Temperature Profile </t>
+          <t xml:space="preserve">US Core Pediatric BMI for Age Observation Profile </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Body temperature</t>
+          <t>BMI Percentile (2-20 years old)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6876,18 +6196,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
@@ -6897,7 +6213,6 @@
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -6908,12 +6223,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+          <t xml:space="preserve">US Core Pediatric Weight for Height Observation Profile </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Pulse oximetry</t>
+          <t>Weight-for-length Percentile (Birth - 36 months)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6921,18 +6236,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
@@ -6942,7 +6253,6 @@
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -6953,12 +6263,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+          <t>US Core Pediatric Head Occipital Frontal Circumference Percentile Profile</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Inhaled oxygen concentration</t>
+          <t>Occipital Frontal Head Circumference Percentile (Birth - 36 months)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6966,18 +6276,14 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
@@ -6987,142 +6293,6 @@
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr"/>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Vital Signs</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">US Core Pediatric BMI for Age Observation Profile </t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>BMI Percentile (2-20 years old)</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr"/>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Vital Signs</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">US Core Pediatric Weight for Height Observation Profile </t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Weight-for-length Percentile (Birth - 36 months)</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr"/>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Vital Signs</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>US Core Pediatric Head Occipital Frontal Circumference Percentile Profile</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Occipital Frontal Head Circumference Percentile (Birth - 36 months)</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/input/images/tables/uscdi-table.xlsx
+++ b/input/images/tables/uscdi-table.xlsx
@@ -5581,7 +5581,11 @@
           <t>Provenance</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>US Core Provenance Profile</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
@@ -5681,7 +5685,11 @@
           <t>Provenance</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>US Core Provenance Profile</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>Author Time Stamp</t>
@@ -5713,7 +5721,11 @@
           <t>Provenance</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>US Core Provenance Profile</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>Author Organization</t>

--- a/input/images/tables/uscdi-table.xlsx
+++ b/input/images/tables/uscdi-table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="uscdi-table.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uscdi-table.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Sex Extension</t>
+          <t>US Core Patient Profile | US Core Individual Sex Extension</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4486,13 +4486,13 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>US Core Sex Extension</t>
+          <t>US Core Individual Sex Extension</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-sex')</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-individual-sex')</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -6307,6 +6307,6 @@
       <c r="R147" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input/images/tables/uscdi-table.xlsx
+++ b/input/images/tables/uscdi-table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="uscdi-table.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uscdi-table.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -680,21 +680,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Care Team Members</t>
+          <t>Care Plan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US Core CareTeam Profile</t>
+          <t>US Core CarePlan Profile</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CarePlan</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CareTeam.participant</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -712,29 +716,29 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Care Team Members</t>
+          <t>Care Plan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile| US Core Patient Profile| US Core RelatedPerson Profile</t>
+          <t>US Core CarePlan Profile</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Care Plan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CareTeam</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Practitioner.name | RelatedPerson.name</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -752,29 +756,29 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Care Team Members</t>
+          <t>Care Plan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile| US Core Patient Profile</t>
+          <t>US Core CarePlan Profile</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Assessment and Plan of Treatment</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CareTeam</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Practitioner.identifier</t>
+          <t>CarePlan</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -789,7 +793,9 @@
       <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Care Team Members</t>
@@ -797,24 +803,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US Core PractitionerRole Profile| US Core Practitioner Profile| US Core Patient Profile| US Core RelatedPerson Profile</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CareTeam</t>
-        </is>
-      </c>
+          <t>US Core CareTeam Profile</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>PractitionerRole.address | Practitioner.address | RelatedPerson.address</t>
+          <t>CareTeam.participant</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -837,12 +835,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US Core PractitionerRole Profile| US Core Practitioner Profile| US Core Patient Profile| US Core RelatedPerson Profile</t>
+          <t>US Core Practitioner Profile| US Core Patient Profile| US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Telecom</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -854,7 +852,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>PractitionerRole.telecom | Practitioner.telecom | RelatedPerson.telecom</t>
+          <t>Practitioner.name | RelatedPerson.name</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -877,12 +875,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>US Core CareTeam Profile</t>
+          <t>US Core Practitioner Profile| US Core Patient Profile</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -894,7 +892,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CareTeam.participant.role</t>
+          <t>Practitioner.identifier</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -909,38 +907,36 @@
       <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Clinical Notes</t>
+          <t>Care Team Members</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile|US Core DiagnosticReport Profile for Report and Note Exchange</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>US Core PractitionerRole Profile| US Core Practitioner Profile| US Core Patient Profile| US Core RelatedPerson Profile</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CareTeam</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>DocumentReference | DiagnosticReport</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>See Clinical Notes Guidance</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>clinical-notes.html</t>
-        </is>
-      </c>
+          <t>PractitionerRole.address | Practitioner.address | RelatedPerson.address</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -954,29 +950,29 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Clinical Notes</t>
+          <t>Care Team Members</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile</t>
+          <t>US Core PractitionerRole Profile| US Core Practitioner Profile| US Core Patient Profile| US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Consultation Note</t>
+          <t>Telecom</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DocumentReference</t>
+          <t>CareTeam</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>DocumentReference</t>
+          <t>PractitionerRole.telecom | Practitioner.telecom | RelatedPerson.telecom</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -994,29 +990,29 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Clinical Notes</t>
+          <t>Care Team Members</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile</t>
+          <t>US Core CareTeam Profile</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Discharge Summary Note</t>
+          <t>Role</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DocumentReference</t>
+          <t>CareTeam</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>DocumentReference</t>
+          <t>CareTeam.participant.role</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1031,7 +1027,9 @@
       <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Clinical Notes</t>
@@ -1039,28 +1037,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>History &amp; Physical</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>DocumentReference</t>
-        </is>
-      </c>
+          <t>US Core DocumentReference Profile|US Core DiagnosticReport Profile for Report and Note Exchange</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>DocumentReference</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>DocumentReference | DiagnosticReport</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>See Clinical Notes Guidance</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>clinical-notes.html</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1079,24 +1077,24 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile|US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core DocumentReference Profile</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Imaging Narrative</t>
+          <t>Consultation Note</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DocumentReference | DiagnosticReport</t>
+          <t>DocumentReference</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>DocumentReference | DiagnosticReport</t>
+          <t>DocumentReference</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1119,24 +1117,24 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile|US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core DocumentReference Profile</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Procedure Note</t>
+          <t>Discharge Summary Note</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DocumentReference | DiagnosticReport</t>
+          <t>DocumentReference</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>DocumentReference | DiagnosticReport</t>
+          <t>DocumentReference</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1164,10 +1162,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Progress Note</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>History &amp; Physical</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>DocumentReference</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
@@ -1195,20 +1197,24 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile</t>
+          <t>US Core DocumentReference Profile|US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Operative Note</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>Imaging Narrative</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>DocumentReference | DiagnosticReport</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>DocumentReference</t>
+          <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1231,20 +1237,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile</t>
+          <t>US Core DocumentReference Profile|US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Emergency Department Note</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>Procedure Note</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DocumentReference | DiagnosticReport</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>DocumentReference</t>
+          <t>DocumentReference | DiagnosticReport</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1259,34 +1269,28 @@
       <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Clinical Tests</t>
+          <t>Clinical Notes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core DocumentReference Profile</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Clinical Tests</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+          <t>Progress Note</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>DocumentReference</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1304,29 +1308,25 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Clinical Tests</t>
+          <t>Clinical Notes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core DocumentReference Profile</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Clinical Test</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+          <t>Operative Note</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>DocumentReference</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1344,29 +1344,25 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Clinical Tests</t>
+          <t>Clinical Notes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core DocumentReference Profile</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Clinical Test Result/Report</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+          <t>Emergency Department Note</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>DocumentReference</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1386,7 +1382,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging</t>
+          <t>Clinical Tests</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1394,8 +1390,16 @@
           <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Clinical Tests</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Observation | DiagnosticReport</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -1418,7 +1422,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging</t>
+          <t>Clinical Tests</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1428,7 +1432,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging Test</t>
+          <t>Clinical Test</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1458,7 +1462,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging</t>
+          <t>Clinical Tests</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1468,7 +1472,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging Result/Report</t>
+          <t>Clinical Test Result/Report</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1500,12 +1504,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Diagnostic Imaging</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1514,7 +1518,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -1532,29 +1536,29 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Diagnostic Imaging</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Diagnostic Imaging Test</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Encounter.identifier</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1572,29 +1576,29 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Diagnostic Imaging</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>US Core Observation Clinical Result Profile| US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Diagnostic Imaging Result/Report</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Encounter.type</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -1609,7 +1613,9 @@
       <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Encounter</t>
@@ -1617,24 +1623,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>US Core Condition Encounter Diagnosis Profile</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Diagnosis</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
+          <t>US Core Encounter Profile</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Condition.code</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -1662,7 +1660,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1674,7 +1672,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Encounter.period</t>
+          <t>Encounter.identifier</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -1702,7 +1700,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1714,7 +1712,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Encounter.location.location</t>
+          <t>Encounter.type</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -1737,24 +1735,24 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>US Core Condition Encounter Diagnosis Profile</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Diagnosis</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Encounter</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Encounter.hospitalization.dischargeDisposition</t>
+          <t>Condition.code</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -1769,38 +1767,36 @@
       <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>7</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Facility Information</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+          <t>US Core Encounter Profile</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Encounter</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>See Facility Information Guidance</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>StructureDefinition-us-core-location.html</t>
-        </is>
-      </c>
+          <t>Encounter.period</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -1814,29 +1810,29 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Facility Information</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Location.identifier</t>
+          <t>Encounter.location.location</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -1854,29 +1850,29 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Facility Information</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Encounter</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Location.type</t>
+          <t>Encounter.hospitalization.dischargeDisposition</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -1891,7 +1887,9 @@
       <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="n">
+        <v>8</v>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Facility Information</t>
@@ -1902,25 +1900,25 @@
           <t>US Core Location Profile</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Location.name</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>See Facility Information Guidance</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>StructureDefinition-us-core-location.html</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -1931,26 +1929,32 @@
       <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>8</v>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Goals and Preferences</t>
+          <t>Facility Information</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>US Core Goal Profile</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+          <t>US Core Location Profile</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Location.identifier</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -1968,29 +1972,29 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Goals and Preferences</t>
+          <t>Facility Information</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>US Core Goal Profile</t>
+          <t>US Core Location Profile</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Patient Goals</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Location.type</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -2008,41 +2012,33 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Goals and Preferences</t>
+          <t>Facility Information</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>US Core Goal Profile</t>
+          <t>US Core Location Profile</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SDOH Goals</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Goal</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Location.name</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2056,29 +2052,29 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Goals and Preferences</t>
+          <t>Facility Information</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>US Core Treatment Intervention Preference Profile</t>
+          <t>US Core Location Profile</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Treatment Intervention Preference</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Location.adress</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -2093,32 +2089,26 @@
       <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="n">
+        <v>9</v>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Goals and Preferences</t>
+          <t>Family Health History</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>US Core Care Experience Preference Profile</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Care Experience Preference</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>US Core FamilyMemberHistory Profile</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>FamilyMemberHistory</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2133,26 +2123,32 @@
       <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>9</v>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Health Insurance Information</t>
+          <t>Family Health History</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+          <t>US Core FamilyMemberHistory Profile</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Family Health History</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>FamilyMemberHistory</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Coverage | Organization</t>
+          <t>FamilyMemberHistory</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -2167,32 +2163,26 @@
       <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="n">
+        <v>10</v>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Health Insurance Information</t>
+          <t>Goals and Preferences</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>US Core Coverage Profile</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Coverage Status</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Coverage</t>
-        </is>
-      </c>
+          <t>US Core Goal Profile |  US Core Observation ADI Documentation Profile| US Core ADI DocumentReference Profile | US Core Treatment Intervention Preference Profile | US Core Care Experience Preference Profile</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Coverage.status+Coverage.period</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -2210,29 +2200,29 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Health Insurance Information</t>
+          <t>Goals and Preferences</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>US Core Coverage Profile</t>
+          <t>US Core Goal Profile</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Coverage Type</t>
+          <t>Patient Goals</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Coverage.type</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2250,33 +2240,41 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Health Insurance Information</t>
+          <t>Goals and Preferences</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>US Core Coverage Profile</t>
+          <t>US Core Goal Profile</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Relationship to Subscriber</t>
+          <t>SDOH Goals</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Coverage | relationship</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+          <t>Goal</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -2290,29 +2288,29 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Health Insurance Information</t>
+          <t>Goals and Preferences</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>US Core Coverage Profile</t>
+          <t xml:space="preserve"> US Core Observation ADI Documentation Profile| US Core ADI DocumentReference Profile</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Member Identifier</t>
+          <t>Advance Directive Observation</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>Observation | DocumentReference</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Coverage.identifier</t>
+          <t>Observation | DocumentReference</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -2330,29 +2328,29 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Health Insurance Information</t>
+          <t>Goals and Preferences</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US Core Coverage Profile</t>
+          <t>US Core Treatment Intervention Preference Profile</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Subscriber Identifier</t>
+          <t>Treatment Intervention Preference</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Coverage.subscriberId</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -2370,29 +2368,29 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Health Insurance Information</t>
+          <t>Goals and Preferences</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US Core Coverage Profile</t>
+          <t>US Core Care Experience Preference Profile</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Group Number</t>
+          <t>Care Experience Preference</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Coverage</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Coverage.class</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -2407,7 +2405,9 @@
       <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="n">
+        <v>11</v>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Health Insurance Information</t>
@@ -2418,21 +2418,13 @@
           <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Payer Identifier</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Coverage | Organization</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Coverage.payer | Organization.identifier</t>
+          <t>Coverage | Organization</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -2447,26 +2439,32 @@
       <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>10</v>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Health Status Assessments</t>
+          <t>Health Insurance Information</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+          <t>US Core Coverage Profile</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Coverage Status</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Coverage</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
+          <t>Coverage.status+Coverage.period</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -2484,29 +2482,29 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Health Status Assessments</t>
+          <t>Health Insurance Information</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t>US Core Coverage Profile</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Health Concerns</t>
+          <t>Coverage Type</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Coverage.type</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -2524,41 +2522,33 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Health Status Assessments</t>
+          <t>Health Insurance Information</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+          <t>US Core Coverage Profile</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Functional Status</t>
+          <t>Relationship to Subscriber</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Coverage | relationship</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -2572,41 +2562,33 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Health Status Assessments</t>
+          <t>Health Insurance Information</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+          <t>US Core Coverage Profile</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Disability Status</t>
+          <t>Member Identifier</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Coverage.identifier</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -2620,41 +2602,33 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Health Status Assessments</t>
+          <t>Health Insurance Information</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+          <t>US Core Coverage Profile</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mental/Cognitive Status</t>
+          <t>Subscriber Identifier</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Coverage.subscriberId</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -2668,29 +2642,29 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Health Status Assessments</t>
+          <t>Health Insurance Information</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>US Core Observation Pregnancy Status Profile| US Core Observation Pregnancy Intent Profile</t>
+          <t>US Core Coverage Profile</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Pregnancy Status</t>
+          <t>Group Number</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Coverage</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Coverage.class</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -2708,41 +2682,33 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Health Status Assessments</t>
+          <t>Health Insurance Information</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+          <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Alcohol Use</t>
+          <t>Payer Identifier</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Coverage | Organization</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Coverage.payer | Organization.identifier</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -2753,7 +2719,9 @@
       <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" t="n">
+        <v>12</v>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Health Status Assessments</t>
@@ -2764,16 +2732,8 @@
           <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Substance Use</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
@@ -2781,16 +2741,8 @@
           <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -2809,36 +2761,28 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Physical Activity</t>
+          <t>Health Concerns</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -2862,19 +2806,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SDOH Assessment</t>
+          <t>Functional Status</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Simple | Condition | QuestionnaireResponse</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Observation | Condition | QuestionnaireResponse</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2905,12 +2849,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>US Core Smoking Status Observation Profile</t>
+          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Smoking Status</t>
+          <t>Disability Status</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2925,8 +2869,16 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -2937,30 +2889,44 @@
       <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>11</v>
-      </c>
+      <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Immunizations</t>
+          <t>Health Status Assessments</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>US Core Immunization Profile</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Mental/Cognitive Status</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Immunization</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
@@ -2974,29 +2940,29 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Immunizations</t>
+          <t>Health Status Assessments</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>US Core Immunization Profile</t>
+          <t>US Core Observation Pregnancy Status Profile| US Core Observation Pregnancy Intent Profile</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Immunizations</t>
+          <t>Pregnancy Status</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Immunization</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Immunization</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -3014,33 +2980,41 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Immunizations</t>
+          <t>Health Status Assessments</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>US Core Immunization Profile</t>
+          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Lot Number</t>
+          <t>Alcohol Use</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Immunization</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Immunization.lotNumber</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -3051,30 +3025,44 @@
       <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>12</v>
-      </c>
+      <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Laboratory</t>
+          <t>Health Status Assessments</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting | US Core Specimen Profile</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Substance Use</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport | Specimen</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -3088,33 +3076,41 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Laboratory</t>
+          <t>Health Status Assessments</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tests</t>
+          <t>Physical Activity</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Observation.code | DiagnosticReport.code</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -3128,33 +3124,41 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Laboratory</t>
+          <t>Health Status Assessments</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+          <t>US Core Simple Observation Profile | US Core Condition Problems and Health Concerns Profile | US Core Observation Screening Assessment Profile | US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Values/Results</t>
+          <t>SDOH Assessment</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Observation | DiagnosticReport</t>
+          <t>Observation | Condition | QuestionnaireResponse</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Observation.value[x] | DiagnosticReport.result</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+          <t>Observation | Condition | QuestionnaireResponse</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -3168,29 +3172,29 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Laboratory</t>
+          <t>Health Status Assessments</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core Specimen Profile</t>
+          <t>US Core Smoking Status Observation Profile</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Specimen Type</t>
+          <t>Smoking Status</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Observation | Specimen</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Observation.specimen | Specimen</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -3205,32 +3209,26 @@
       <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
+      <c r="A70" t="n">
+        <v>13</v>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Laboratory</t>
+          <t>Immunizations</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Result Status</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Observation | DiagnosticReport</t>
-        </is>
-      </c>
+          <t>US Core Immunization Profile</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Observation.status | DiagnosticReport.status</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -3248,29 +3246,29 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Laboratory</t>
+          <t>Immunizations</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
+          <t>US Core Immunization Profile</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Result Unit of Measure</t>
+          <t>Immunizations</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Observation.value.ofType(Quantity)).code</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -3288,29 +3286,29 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Laboratory</t>
+          <t>Immunizations</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
+          <t>US Core Immunization Profile</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Result Reference Range</t>
+          <t>Lot Number</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Immunization</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Observation.referenceRange</t>
+          <t>Immunization.lotNumber</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -3325,7 +3323,9 @@
       <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
+      <c r="A73" t="n">
+        <v>14</v>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Laboratory</t>
@@ -3333,24 +3333,16 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Result Interpretation</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting | US Core Specimen Profile</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Observation.interpretation</t>
+          <t>Observation | DiagnosticReport | Specimen</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -3373,24 +3365,24 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
+          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Specimen Identifier</t>
+          <t>Tests</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Specimen</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Specimen.identifier</t>
+          <t>Observation.code | DiagnosticReport.code</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -3413,24 +3405,24 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
+          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Specimen Source Site</t>
+          <t>Values/Results</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Specimen</t>
+          <t>Observation | DiagnosticReport</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Specimen.collection.bodySite</t>
+          <t>Observation.value[x] | DiagnosticReport.result</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -3453,24 +3445,24 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
+          <t>US Core Laboratory Result Observation Profile| US Core Specimen Profile</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Specimen Condition Acceptability</t>
+          <t>Specimen Type</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Specimen</t>
+          <t>Observation | Specimen</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Specimen.condition</t>
+          <t>Observation.specimen | Specimen</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -3485,26 +3477,32 @@
       <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>13</v>
-      </c>
+      <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Medical Devices</t>
+          <t>Laboratory</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>US Core Implantable Device Profile</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+          <t>US Core Laboratory Result Observation Profile| US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Result Status</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Observation | DiagnosticReport</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>Observation.status | DiagnosticReport.status</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -3522,29 +3520,29 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Medical Devices</t>
+          <t>Laboratory</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>US Core Implantable Device Profile</t>
+          <t>US Core Laboratory Result Observation Profile</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Unique Device Identifier(s) for a Patient's Implantable Device(s)</t>
+          <t>Result Unit of Measure</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>(Observation.value.ofType(Quantity)).code</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -3559,38 +3557,36 @@
       <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>14</v>
-      </c>
+      <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Laboratory</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile | US Core MedicationDispense Profile | US Core Medication Profile</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+          <t>US Core Laboratory Result Observation Profile</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Result Reference Range</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>MedicationRequest | MedicationDispense | Medication</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>See Medication List Guidance</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>medication-list.html</t>
-        </is>
-      </c>
+          <t>Observation.referenceRange</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -3604,29 +3600,29 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Laboratory</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>US Core Medication Profile | US Core MedicationRequest Profile</t>
+          <t>US Core Laboratory Result Observation Profile</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Result Interpretation</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Medication | MedicationRequest</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Medication.code | MedicationRequest.medication[x]</t>
+          <t>Observation.interpretation</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -3644,29 +3640,29 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Laboratory</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Dose</t>
+          <t>Specimen Identifier</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
+          <t>Specimen</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>MedicationRequest.dosageInstruction.doseAndRate</t>
+          <t>Specimen.identifier</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -3684,29 +3680,29 @@
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Laboratory</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Dose Unit of Measure</t>
+          <t>Specimen Source Site</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
+          <t>Specimen</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>MedicationRequest.dosageInstruction.doseAndRate</t>
+          <t>Specimen.collection.bodySite</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -3724,29 +3720,29 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Laboratory</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile | US Core MedicationDispense Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Route of Administration</t>
+          <t>Specimen Condition Acceptability</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MedicationRequest | MedicationDispense</t>
+          <t>Specimen</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>MedicationRequest.dosageInstruction.route | MedicationDispense.dosageInstruction.route</t>
+          <t>Specimen.condition</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -3761,32 +3757,26 @@
       <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" t="n">
+        <v>15</v>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Medical Devices</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Indication</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
+          <t>US Core Device Profile</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>MedicationRequest.reasonCode | Medication.reasonReference</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -3804,29 +3794,29 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Medications</t>
+          <t>Medical Devices</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
+          <t>US Core Device Profile</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Medication Instructions</t>
+          <t>Unique Device Identifier</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>MedicationRequest.dosageInstruction</t>
+          <t>Device</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -3841,7 +3831,9 @@
       <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
+      <c r="A86" t="n">
+        <v>16</v>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Medications</t>
@@ -3849,32 +3841,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile | US Core Medication Adherence Extension</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Medication Adherence</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>MedicationRequest</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>US Core Medication Adherence Extension</t>
-        </is>
-      </c>
+          <t>US Core MedicationRequest Profile | US Core MedicationDispense Profile | US Core Medication Profile</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>MedicationRequest.extension.where(url='Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication-adherence')</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+          <t>MedicationRequest | MedicationDispense | Medication</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>See Medication List Guidance</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>medication-list.html</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -3893,24 +3881,24 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>US Core MedicationDispense Profile</t>
+          <t>US Core Medication Profile | US Core MedicationRequest Profile</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Fill Status</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MedicationDispense</t>
+          <t>Medication | MedicationRequest</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>MedicationDispense</t>
+          <t>Medication.code | MedicationRequest.medication[x]</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -3925,24 +3913,34 @@
       <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>15</v>
-      </c>
+      <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> US Core Observation ADI Documentation Profile| US Core ADI DocumentReference Profile</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+          <t>US Core MedicationRequest Profile</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Dose</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>MedicationRequest</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>MedicationRequest.dosageInstruction.doseAndRate</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3958,29 +3956,29 @@
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> US Core Observation ADI Documentation Profile| US Core ADI DocumentReference Profile</t>
+          <t>US Core MedicationRequest Profile</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Advance Directive Observation</t>
+          <t>Dose Unit of Measure</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Observation | DocumentReference</t>
+          <t>MedicationRequest</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Observation | DocumentReference</t>
+          <t>MedicationRequest.dosageInstruction.doseAndRate</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -3995,26 +3993,32 @@
       <c r="R89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>16</v>
-      </c>
+      <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Orders</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile | US Core ServiceRequest Profile</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+          <t>US Core MedicationRequest Profile | US Core MedicationDispense Profile</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>MedicationRequest | MedicationDispense</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>MedicationRequest | ServiceRequest</t>
+          <t>MedicationRequest.dosageInstruction.route | MedicationDispense.dosageInstruction.route</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -4032,7 +4036,7 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Orders</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4042,7 +4046,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Medication Order</t>
+          <t>Indication</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4054,7 +4058,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>MedicationRequest</t>
+          <t>MedicationRequest.reasonCode | Medication.reasonReference</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -4072,29 +4076,29 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Orders</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile</t>
+          <t>US Core MedicationRequest Profile</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Laboratory Order</t>
+          <t>Medication Instructions</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ServiceRequest</t>
+          <t>MedicationRequest</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>ServiceRequest</t>
+          <t>MedicationRequest.dosageInstruction</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -4112,29 +4116,33 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Orders</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile</t>
+          <t>US Core MedicationRequest Profile | US Core Medication Adherence Extension</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Diagnostic Imaging Order</t>
+          <t>Medication Adherence</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
+          <t>MedicationRequest</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>US Core Medication Adherence Extension</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>ServiceRequest</t>
+          <t>MedicationRequest.extension.where(url='Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication-adherence')</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -4152,29 +4160,29 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Orders</t>
+          <t>Medications</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile</t>
+          <t>US Core MedicationDispense Profile</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Clinical Test Order</t>
+          <t>Fill Status</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ServiceRequest</t>
+          <t>MedicationDispense</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>ServiceRequest</t>
+          <t>MedicationDispense</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -4189,7 +4197,9 @@
       <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr"/>
+      <c r="A95" t="n">
+        <v>17</v>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Orders</t>
@@ -4197,24 +4207,16 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Procedure Order</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>ServiceRequest</t>
-        </is>
-      </c>
+          <t>US Core MedicationRequest Profile | US Core ServiceRequest Profile | US Core PMO ServiceRequest Profile |US Core Observation ADI Documentation Profile</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>ServiceRequest</t>
+          <t>MedicationRequest | ServiceRequest</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -4229,26 +4231,32 @@
       <c r="R95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>17</v>
-      </c>
+      <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core RelatedPerson Profile | US Core Observation Occupation Profile</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+          <t>US Core MedicationRequest Profile</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Medication Order</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>MedicationRequest</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Patient | Observation</t>
+          <t>MedicationRequest</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -4266,29 +4274,29 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Laboratory Order</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Patient.name.given</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -4306,29 +4314,29 @@
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Diagnostic Imaging Order</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Patient.name.family</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -4346,29 +4354,29 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Previous Name</t>
+          <t>Clinical Test Order</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Patient.name.use</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -4386,29 +4394,29 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Middle Name (including middle initial)</t>
+          <t>Procedure Order</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Patient.name.given</t>
+          <t>ServiceRequest</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -4426,29 +4434,29 @@
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Patient Demographics</t>
+          <t>Orders</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core PMO ServiceRequest Profile | US Core Observation ADI Documentation Profile</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Suffix</t>
+          <t>Portable Medical Order</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Patient</t>
+          <t>ServiceRequest | DocumentReference</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Patient.name.suffix</t>
+          <t>ServiceRequest | DocumentReference</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -4463,7 +4471,9 @@
       <c r="R101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr"/>
+      <c r="A102" t="n">
+        <v>18</v>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Patient Demographics</t>
@@ -4471,28 +4481,16 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Sex Extension</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Patient</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>US Core Sex Extension</t>
-        </is>
-      </c>
+          <t>US Core Patient Profile | US Core RelatedPerson Profile | US Core Observation Occupation Profile</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-sex')</t>
+          <t>Patient | Observation</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -4520,7 +4518,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Date of Birth</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4532,7 +4530,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Patient.birthDate</t>
+          <t>Patient.name.given</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -4560,7 +4558,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Date of Death</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4572,7 +4570,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Patient.deceased[x]</t>
+          <t>Patient.name.family</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -4595,12 +4593,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Race Extension</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Previous Name</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4608,15 +4606,11 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>US Core Race Extension</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')</t>
+          <t>Patient.name.use</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -4639,12 +4633,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Ethnicity Extension</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Ethnicity</t>
+          <t>Middle Name (including middle initial)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4652,15 +4646,11 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>US Core Ethnicity Extension</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')</t>
+          <t>Patient.name.given</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -4683,12 +4673,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Tribal Affiliation Extension</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tribal Affiliation</t>
+          <t>Suffix</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4696,15 +4686,11 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>US Core Tibal Affiliation Extension</t>
-        </is>
-      </c>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-tribal-affiliation')</t>
+          <t>Patient.name.suffix</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -4727,12 +4713,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Patient Profile | US Core Individual Sex Extension</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Preferred Language</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4740,11 +4726,15 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>US Core Individual Sex Extension</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Patient.communication</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-individual-sex')</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -4767,28 +4757,24 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>US Core Patient Profile | US Core Encounter Profile |US Core Interpreter Needed Extension</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interpreter Needed</t>
+          <t>Date of Birth</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Patient | Encounter</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>US Core Interpreter Needed Extension</t>
-        </is>
-      </c>
+          <t>Patient</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') | Encounter.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') </t>
+          <t>Patient.birthDate</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -4816,7 +4802,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Date of Death</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4828,7 +4814,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Patient.address</t>
+          <t>Patient.deceased[x]</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -4851,12 +4837,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Patient Profile | US Core Race Extension</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Previous Address</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4864,11 +4850,15 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>US Core Race Extension</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Patient.address</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -4891,12 +4881,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Patient Profile | US Core Ethnicity Extension</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Ethnicity</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4904,11 +4894,15 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>US Core Ethnicity Extension</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Patient.telecom</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -4931,12 +4925,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Patient Profile | US Core Tribal Affiliation Extension</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Tribal Affiliation</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4944,11 +4938,15 @@
           <t>Patient</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>US Core Tibal Affiliation Extension</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Patient.telecom</t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-tribal-affiliation')</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -4971,24 +4969,24 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Related Person's Name</t>
+          <t>Preferred Language</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>RelatedPerson.name</t>
+          <t>Patient.communication</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -5011,24 +5009,28 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core Patient Profile | US Core Encounter Profile |US Core Interpreter Needed Extension</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Related Person's Relationship</t>
+          <t>Interpreter Needed</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>RelatedPerson</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
+          <t>Patient | Encounter</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>US Core Interpreter Needed Extension</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>RelatedPerson.relationship</t>
+          <t xml:space="preserve">Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') | Encounter.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') </t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -5051,24 +5053,24 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>US Core Observation Occupation Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Occupation</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient.address</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -5091,24 +5093,24 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>US Core Observation Occupation Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Occupation Industry</t>
+          <t>Previous Address</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Patient.address</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -5123,26 +5125,32 @@
       <c r="R117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>18</v>
-      </c>
+      <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Patient Summary and Plan</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>US Core CarePlan Profile</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+          <t>US Core Patient Profile</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Patient</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>CarePlan</t>
+          <t>Patient.telecom</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -5160,29 +5168,29 @@
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Patient Summary and Plan</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>US Core CarePlan Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Assessment and Plan of Treatment</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CarePlan</t>
+          <t>Patient</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>CarePlan</t>
+          <t>Patient.telecom</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -5197,30 +5205,32 @@
       <c r="R119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>19</v>
-      </c>
+      <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>US Core RelatedPerson Profile</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Related Person's Name</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>RelatedPerson.name</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -5238,29 +5248,29 @@
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile |assertedDate Extension</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Date of Resolution</t>
+          <t>Related Person's Relationship</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>RelatedPerson</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Condition.abatement[x]</t>
+          <t>RelatedPerson.relationship</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -5278,37 +5288,29 @@
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile |assertedDate Extension</t>
+          <t>US Core Observation Occupation Profile</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Date of Diagnosis</t>
+          <t>Occupation</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>assertedDate Extension</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>StructureDefinition-condition-assertedDate.html</t>
-        </is>
-      </c>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Condition.extension.where(url='http://hl7.org/fhir/StructureDefinition/condition-assertedDate') | Condition.onset[x] | Condition.onsetDate</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -5326,41 +5328,33 @@
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Problems</t>
+          <t>Patient Demographics</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>US Core Condition Problems and Health Concerns Profile</t>
+          <t>US Core Observation Occupation Profile</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SDOH Problems/Health Concerns</t>
+          <t>Occupation Industry</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>See Screening and Assessments Guidance</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>screening-and-assessments.html</t>
-        </is>
-      </c>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
@@ -5372,25 +5366,29 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Procedures</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile | US Core ServiceRequest Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Condition</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Procedure | ServiceRequest</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -5408,29 +5406,29 @@
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Procedures</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t>Date of Resolution</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t>Condition.abatement[x]</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -5448,29 +5446,37 @@
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Procedures</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile|US Core DiagnosticReport Profile for Report and Note Exchange|US Core Immunization Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile |assertedDate Extension</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Performance Time</t>
+          <t>Date of Diagnosis</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Procedure | DiagnosticRepor | Immunization</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>assertedDate Extension</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>StructureDefinition-condition-assertedDate.html</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Procedure.pertormed[x] | DiagnosticReport.effective[x] | Immunization.occurrence[x]</t>
+          <t>Condition.extension.where(url='http://hl7.org/fhir/StructureDefinition/condition-assertedDate') | Condition.onset[x] | Condition.onsetDate</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -5488,29 +5494,29 @@
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Procedures</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Reason for Referral</t>
+          <t>Date of Onset</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ServiceRequest | Procedure</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>ServiceRequest.reasonCode | ServiceRequest.reasonReference | Procedure.reasonCode | Procedure.reasonReference</t>
+          <t>Condition.onset[x]</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -5528,29 +5534,29 @@
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Procedures</t>
+          <t>Problems</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SDOH Interventions</t>
+          <t>SDOH Problems/Health Concerns</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ServiceRequest | Procedure</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>ServiceRequest | Procedure</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -5574,16 +5580,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t>US Core Procedure Profile | US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -5592,19 +5598,11 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Provenance</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>See Basic Provenance Guidance</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>basic-provenance.html</t>
-        </is>
-      </c>
+          <t>Procedure | ServiceRequest</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
@@ -5618,21 +5616,29 @@
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Provenance</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>Procedures</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>US Core Procedure Profile</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Author</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Provenance.recorded</t>
+          <t>Procedure</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -5650,21 +5656,29 @@
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Provenance</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>Procedures</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>US Core Procedure Profile|US Core DiagnosticReport Profile for Report and Note Exchange|US Core Immunization Profile</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Author Role</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
+          <t>Performance Time</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Procedure | DiagnosticRepor | Immunization</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Provenance.agent</t>
+          <t>Procedure.pertormed[x] | DiagnosticReport.effective[x] | Immunization.occurrence[x]</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -5682,25 +5696,29 @@
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Author Time Stamp</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
+          <t>Reason for Referral</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>ServiceRequest | Procedure</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Provenance.recorded</t>
+          <t>ServiceRequest.reasonCode | ServiceRequest.reasonReference | Procedure.reasonCode | Procedure.reasonReference</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -5718,29 +5736,41 @@
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Provenance</t>
+          <t>Procedures</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t>US Core ServiceRequest Profile | US Core Procedure Profile</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Author Organization</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
+          <t>SDOH Interventions</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>ServiceRequest | Procedure</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Provenance.agent</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+          <t>ServiceRequest | Procedure</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>See Screening and Assessments Guidance</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>screening-and-assessments.html</t>
+        </is>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
@@ -5752,16 +5782,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Provenance</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>US Core Vital Signs Profile</t>
+          <t>US Core Provenance Profile</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -5770,11 +5800,19 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>See Basic Provenance Guidance</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>basic-provenance.html</t>
+        </is>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
@@ -5788,29 +5826,21 @@
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">US Core Average Blood Pressure Profile </t>
-        </is>
-      </c>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Average Blood Pressure</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Provenance.recorded</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -5822,37 +5852,27 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="n">
-        <v>3</v>
-      </c>
+      <c r="R135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">US Core Blood Pressure Profile </t>
-        </is>
-      </c>
+          <t>Provenance</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Diastolic blood pressure</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>Author Role</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Provenance.agent</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -5870,29 +5890,25 @@
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Provenance</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Blood Pressure Profile </t>
+          <t>US Core Provenance Profile</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Systolic blood pressure</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>Author Time Stamp</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Provenance.recorded</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -5910,29 +5926,25 @@
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Vital Signs</t>
+          <t>Provenance</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Height Profile </t>
+          <t>US Core Provenance Profile</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Body height</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>Author Organization</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Provenance.agent</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -5947,7 +5959,9 @@
       <c r="R138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr"/>
+      <c r="A139" t="n">
+        <v>22</v>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Vital Signs</t>
@@ -5955,19 +5969,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Weight Profile </t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Body weight</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
+          <t>US Core Vital Signs Profile</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
@@ -5995,12 +6001,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Heart Rate Profile </t>
+          <t xml:space="preserve">US Core Average Blood Pressure Profile </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Heart rate</t>
+          <t>Average Blood Pressure</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6024,7 +6030,9 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -6035,12 +6043,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Respiratory Rate Profile </t>
+          <t xml:space="preserve">US Core Blood Pressure Profile </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Respiratory rate</t>
+          <t>Diastolic blood pressure</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6075,12 +6083,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Temperature Profile </t>
+          <t xml:space="preserve">US Core Blood Pressure Profile </t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Body temperature</t>
+          <t>Systolic blood pressure</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6115,12 +6123,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+          <t xml:space="preserve">US Core Body Height Profile </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Pulse oximetry</t>
+          <t>Body height</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6155,12 +6163,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+          <t xml:space="preserve">US Core Body Weight Profile </t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Inhaled oxygen concentration</t>
+          <t>Body weight</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6195,12 +6203,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pediatric BMI for Age Observation Profile </t>
+          <t xml:space="preserve">US Core Heart Rate Profile </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>BMI Percentile (2-20 years old)</t>
+          <t>Heart rate</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6235,12 +6243,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pediatric Weight for Height Observation Profile </t>
+          <t xml:space="preserve">US Core Respiratory Rate Profile </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Weight-for-length Percentile (Birth - 36 months)</t>
+          <t>Respiratory rate</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6275,12 +6283,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>US Core Pediatric Head Occipital Frontal Circumference Percentile Profile</t>
+          <t xml:space="preserve">US Core Body Temperature Profile </t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Occipital Frontal Head Circumference Percentile (Birth - 36 months)</t>
+          <t>Body temperature</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6306,7 +6314,207 @@
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
     </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Pulse oximetry</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Inhaled oxygen concentration</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Pediatric BMI for Age Observation Profile </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>BMI Percentile (2-20 years old)</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Core Pediatric Weight for Height Observation Profile </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Weight-for-length Percentile (Birth - 36 months)</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>US Core Pediatric Head Occipital Frontal Circumference Percentile Profile</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Occipital Frontal Head Circumference Percentile (Birth - 36 months)</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input/images/tables/uscdi-table.xlsx
+++ b/input/images/tables/uscdi-table.xlsx
@@ -2293,7 +2293,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> US Core Observation ADI Documentation Profile| US Core ADI DocumentReference Profile</t>
+          <t>US Core Observation ADI Documentation Profile| US Core ADI DocumentReference Profile</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
+          <t>US Core Coverage Profile | US Core Organization Profile</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Coverage Profile | US Core Organization Profile </t>
+          <t>US Core Coverage Profile | US Core Organization Profile</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile | US Core ServiceRequest Profile | US Core PMO ServiceRequest Profile |US Core Observation ADI Documentation Profile</t>
+          <t>US Core MedicationRequest Profile | US Core ServiceRequest Profile | US Core ADI DocumentReference Profile</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>US Core PMO ServiceRequest Profile | US Core Observation ADI Documentation Profile</t>
+          <t>US Core ADI DocumentReference Profile</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5030,7 +5030,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') | Encounter.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') </t>
+          <t>Patient.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'') | Encounter.extension.where(url='http://hl7.org/fhir/us/core/StructureDefinition/us-core-interpreter-needed'')</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Average Blood Pressure Profile </t>
+          <t>US Core Average Blood Pressure Profile</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Blood Pressure Profile </t>
+          <t>US Core Blood Pressure Profile</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Blood Pressure Profile </t>
+          <t>US Core Blood Pressure Profile</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Height Profile </t>
+          <t>US Core Body Height Profile</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Weight Profile </t>
+          <t>US Core Body Weight Profile</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Heart Rate Profile </t>
+          <t>US Core Heart Rate Profile</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Respiratory Rate Profile </t>
+          <t>US Core Respiratory Rate Profile</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Body Temperature Profile </t>
+          <t>US Core Body Temperature Profile</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+          <t>US Core Pulse Oximetry Profile</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pulse Oximetry Profile </t>
+          <t>US Core Pulse Oximetry Profile</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pediatric BMI for Age Observation Profile </t>
+          <t>US Core Pediatric BMI for Age Observation Profile</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Core Pediatric Weight for Height Observation Profile </t>
+          <t>US Core Pediatric Weight for Height Observation Profile</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
